--- a/hotels_list.xlsx
+++ b/hotels_list.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/39837703.webp?k=bd613b3535977ff6d3f266b283986681dd268059d55f3bbb7576f2b0a8518a56&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/39837703.webp?k=bd613b3535977ff6d3f266b283986681dd268059d55f3bbb7576f2b0a8518a56&amp;o=</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/smart-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633968&amp;all_sr_blocks=116517101_89188931_1_2_0&amp;highlighted_blocks=116517101_89188931_1_2_0&amp;matching_block_id=116517101_89188931_1_2_0&amp;sr_pri_blocks=116517101_89188931_1_2_0__7000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/smart-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635536&amp;all_sr_blocks=116517101_89188931_1_2_0&amp;highlighted_blocks=116517101_89188931_1_2_0&amp;matching_block_id=116517101_89188931_1_2_0&amp;sr_pri_blocks=116517101_89188931_1_2_0__7000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/329846657.webp?k=1c709ad9e96e034170e48af8d83262d34f246c3a8cd4e2b675ed0cdb1ac95ca3&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/329846657.webp?k=1c709ad9e96e034170e48af8d83262d34f246c3a8cd4e2b675ed0cdb1ac95ca3&amp;o=</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hispano.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633968&amp;all_sr_blocks=31207401_89160692_0_0_0&amp;highlighted_blocks=31207401_89160692_0_0_0&amp;matching_block_id=31207401_89160692_0_0_0&amp;sr_pri_blocks=31207401_89160692_0_0_0__4875&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hispano.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635536&amp;all_sr_blocks=31207401_89160692_0_0_0&amp;highlighted_blocks=31207401_89160692_0_0_0&amp;matching_block_id=31207401_89160692_0_0_0&amp;sr_pri_blocks=31207401_89160692_0_0_0__4875&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/484118323.webp?k=46ce8cb5b4aeb6d7ddba09d1b35627930a5e157cc19f04da94ebf3ee1d64e0b7&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/484118323.webp?k=46ce8cb5b4aeb6d7ddba09d1b35627930a5e157cc19f04da94ebf3ee1d64e0b7&amp;o=</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hampton-by-hilton-montevideo-carrasco.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=247027201_274562642_2_1_0&amp;highlighted_blocks=247027201_274562642_2_1_0&amp;matching_block_id=247027201_274562642_2_1_0&amp;sr_pri_blocks=247027201_274562642_2_1_0__13900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hampton-by-hilton-montevideo-carrasco.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=247027201_274562642_2_1_0&amp;highlighted_blocks=247027201_274562642_2_1_0&amp;matching_block_id=247027201_274562642_2_1_0&amp;sr_pri_blocks=247027201_274562642_2_1_0__13900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/21532416.webp?k=048b28f9f27e1f2e3ea0ba1236f9faad33861b53754614cb6729d20d3c895f16&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/21532416.webp?k=048b28f9f27e1f2e3ea0ba1236f9faad33861b53754614cb6729d20d3c895f16&amp;o=</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/tres-cruces.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=59191003_265777979_0_2_0&amp;highlighted_blocks=59191003_265777979_0_2_0&amp;matching_block_id=59191003_265777979_0_2_0&amp;sr_pri_blocks=59191003_265777979_0_2_0__6500&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/tres-cruces.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=59191003_265777979_0_2_0&amp;highlighted_blocks=59191003_265777979_0_2_0&amp;matching_block_id=59191003_265777979_0_2_0&amp;sr_pri_blocks=59191003_265777979_0_2_0__6500&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/285904296.webp?k=af5b29aba883b3c08d24711e029a2b674d3229805aef346c7b317ce1348a51cd&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/285904296.webp?k=af5b29aba883b3c08d24711e029a2b674d3229805aef346c7b317ce1348a51cd&amp;o=</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/days-inn.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=24655511_362025972_2_2_0&amp;highlighted_blocks=24655511_362025972_2_2_0&amp;matching_block_id=24655511_362025972_2_2_0&amp;sr_pri_blocks=24655511_362025972_2_2_0__6600&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/days-inn.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=24655511_362025972_2_2_0&amp;highlighted_blocks=24655511_362025972_2_2_0&amp;matching_block_id=24655511_362025972_2_2_0&amp;sr_pri_blocks=24655511_362025972_2_2_0__6600&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/514745014.webp?k=48c74f20d4012cfee7722140bf5323d9cfdf3a713f08123f092daaf70c6e5239&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/514745014.webp?k=48c74f20d4012cfee7722140bf5323d9cfdf3a713f08123f092daaf70c6e5239&amp;o=</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/dazzler-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=55450714_266394543_2_1_0&amp;highlighted_blocks=55450714_266394543_2_1_0&amp;matching_block_id=55450714_266394543_2_1_0&amp;sr_pri_blocks=55450714_266394543_2_1_0__12500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/dazzler-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=55450714_266394543_2_1_0&amp;highlighted_blocks=55450714_266394543_2_1_0&amp;matching_block_id=55450714_266394543_2_1_0&amp;sr_pri_blocks=55450714_266394543_2_1_0__12500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -720,12 +720,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/270224943.webp?k=25f1668e9314b976c5e8aa06de4b05c13159822fc1819a409f69f1a037d52b9c&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/270224943.webp?k=25f1668e9314b976c5e8aa06de4b05c13159822fc1819a409f69f1a037d52b9c&amp;o=</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/palacio.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=40020801_278177017_0_0_0&amp;highlighted_blocks=40020801_278177017_0_0_0&amp;matching_block_id=40020801_278177017_0_0_0&amp;sr_pri_blocks=40020801_278177017_0_0_0__4800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/palacio.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=40020801_278177017_0_0_0&amp;highlighted_blocks=40020801_278177017_0_0_0&amp;matching_block_id=40020801_278177017_0_0_0&amp;sr_pri_blocks=40020801_278177017_0_0_0__4800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -757,12 +757,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/251931020.webp?k=1fdc458ad2f0a8785b3574090e2f7f5823c9a1b8dda662f0836c702ace900637&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/251931020.webp?k=1fdc458ad2f0a8785b3574090e2f7f5823c9a1b8dda662f0836c702ace900637&amp;o=</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/ibis-montevideo-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=48367101_377053749_2_2_0&amp;highlighted_blocks=48367101_377053749_2_2_0&amp;matching_block_id=48367101_377053749_2_2_0&amp;sr_pri_blocks=48367101_377053749_2_2_0__6500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/ibis-montevideo-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=48367101_377053749_2_2_0&amp;highlighted_blocks=48367101_377053749_2_2_0&amp;matching_block_id=48367101_377053749_2_2_0&amp;sr_pri_blocks=48367101_377053749_2_2_0__6500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/132767886.webp?k=41b20b62d24b242f4b6a5eecde70d4d32047a24a14e1cf927b39938f5fe1e9c6&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/132767886.webp?k=41b20b62d24b242f4b6a5eecde70d4d32047a24a14e1cf927b39938f5fe1e9c6&amp;o=</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/circus-hostel-amp-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=291382202_381373332_0_0_0&amp;highlighted_blocks=291382202_381373332_0_0_0&amp;matching_block_id=291382202_381373332_0_0_0&amp;sr_pri_blocks=291382202_381373332_0_0_0__1840&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/circus-hostel-amp-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=291382202_381373332_0_0_0&amp;highlighted_blocks=291382202_381373332_0_0_0&amp;matching_block_id=291382202_381373332_0_0_0&amp;sr_pri_blocks=291382202_381373332_0_0_0__1840&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/134813691.webp?k=8e68e181ffc65d43ceab6157171e8d5c60a23a748ed5a7827109398bb520881f&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/134813691.webp?k=8e68e181ffc65d43ceab6157171e8d5c60a23a748ed5a7827109398bb520881f&amp;o=</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/pocitos-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=24621202_89152397_0_33_0&amp;highlighted_blocks=24621202_89152397_0_33_0&amp;matching_block_id=24621202_89152397_0_33_0&amp;sr_pri_blocks=24621202_89152397_0_33_0__11016&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/pocitos-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=24621202_89152397_0_33_0&amp;highlighted_blocks=24621202_89152397_0_33_0&amp;matching_block_id=24621202_89152397_0_33_0&amp;sr_pri_blocks=24621202_89152397_0_33_0__11016&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -868,24 +868,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/48215636.webp?k=7847983394e9eb89b6c1f9a82756ccbb96a5bd05c5910d5317c5795ed2cfd5f5&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/48215636.webp?k=7847983394e9eb89b6c1f9a82756ccbb96a5bd05c5910d5317c5795ed2cfd5f5&amp;o=</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/crystal-palace.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=25903801_328913129_0_42_0&amp;highlighted_blocks=25903801_328913129_0_42_0&amp;matching_block_id=25903801_328913129_0_42_0&amp;sr_pri_blocks=25903801_328913129_0_42_0__6300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/crystal-palace.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=25903801_328913129_0_42_0&amp;highlighted_blocks=25903801_328913129_0_42_0&amp;matching_block_id=25903801_328913129_0_42_0&amp;sr_pri_blocks=25903801_328913129_0_42_0__6300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Viajero Montevideo Hostel</t>
+          <t>Radisson Montevideo Victoria Plaza Hotel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>US$17</t>
+          <t>US$126</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,29 +900,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>2.521</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/443619141.webp?k=7575d455ebc72c0e4a885abab3c4c53620bf79cf3f4b40b8d7bafc97bdb58921&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/521231809.webp?k=027f95adbab00476833adb1f5461cbaa2502bbd79e575c87d39dcba7fc01bbcd&amp;o=</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/el-viajero-downtown.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=26266231_371753717_1_2_0&amp;highlighted_blocks=26266231_371753717_1_2_0&amp;matching_block_id=26266231_371753717_1_2_0&amp;sr_pri_blocks=26266231_371753717_1_2_0__1659&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/radisson-montevideo-victoria-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=0_0_1_0_0&amp;highlighted_blocks=0_0_1_0_0&amp;matching_block_id=0_0_1_0_0&amp;sr_pri_blocks=0_0_1_0_0__12644&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Radisson Montevideo Victoria Plaza Hotel</t>
+          <t>Viajero Montevideo Hostel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>US$126</t>
+          <t>US$17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -937,17 +937,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.521</t>
+          <t>1.023</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/521231809.webp?k=027f95adbab00476833adb1f5461cbaa2502bbd79e575c87d39dcba7fc01bbcd&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/443619141.webp?k=7575d455ebc72c0e4a885abab3c4c53620bf79cf3f4b40b8d7bafc97bdb58921&amp;o=</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/radisson-montevideo-victoria-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=0_0_1_0_0&amp;highlighted_blocks=0_0_1_0_0&amp;matching_block_id=0_0_1_0_0&amp;sr_pri_blocks=0_0_1_0_0__12640&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/el-viajero-downtown.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=26266231_371753717_1_2_0&amp;highlighted_blocks=26266231_371753717_1_2_0&amp;matching_block_id=26266231_371753717_1_2_0&amp;sr_pri_blocks=26266231_371753717_1_2_0__1659&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
@@ -979,246 +979,246 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/255847283.webp?k=9d78ea03287d4cad06d4a7bf0d8b6e1d8dd29df6b8af47feb815bb2578f7ccbc&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/255847283.webp?k=9d78ea03287d4cad06d4a7bf0d8b6e1d8dd29df6b8af47feb815bb2578f7ccbc&amp;o=</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/america.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=35340004_379748733_0_1_0&amp;highlighted_blocks=35340004_379748733_0_1_0&amp;matching_block_id=35340004_379748733_0_1_0&amp;sr_pri_blocks=35340004_379748733_0_1_0__6000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/america.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=35340004_379748733_0_1_0&amp;highlighted_blocks=35340004_379748733_0_1_0&amp;matching_block_id=35340004_379748733_0_1_0&amp;sr_pri_blocks=35340004_379748733_0_1_0__6000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hyatt Centric Montevideo</t>
+          <t>After Hotel Montevideo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>US$170</t>
+          <t>US$90</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fabuloso</t>
+          <t>Muy bien</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>2.513</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/194941789.webp?k=308b7624d240010c74bd1e07f00441a36ed65e1764d0a3f6585f530eb2b73488&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/490562653.webp?k=c67c7105d9567dbd5098a25a573ea406ebd2c0bf6c8fd6e680b4f519c3fee1b3&amp;o=</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hyatt-centric-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=178125601_372523648_2_2_0&amp;highlighted_blocks=178125601_372523648_2_2_0&amp;matching_block_id=178125601_372523648_2_2_0&amp;sr_pri_blocks=178125601_372523648_2_2_0__17010&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/after-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=34692202_92485235_0_1_0&amp;highlighted_blocks=34692202_92485235_0_1_0&amp;matching_block_id=34692202_92485235_0_1_0&amp;sr_pri_blocks=34692202_92485235_0_1_0__9000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hotel Bahamas</t>
+          <t>Hyatt Centric Montevideo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>US$69</t>
+          <t>US$170</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bien</t>
+          <t>Fabuloso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.661</t>
+          <t>922</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/369568534.webp?k=425dd5542c3131345397a5b5527d6c5edfef9d742a5dc1c810ae80dbcc000162&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/194941789.webp?k=308b7624d240010c74bd1e07f00441a36ed65e1764d0a3f6585f530eb2b73488&amp;o=</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/bahamas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=27213701_105781473_0_1_0&amp;highlighted_blocks=27213701_105781473_0_1_0&amp;matching_block_id=27213701_105781473_0_1_0&amp;sr_pri_blocks=27213701_105781473_0_1_0__6900&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hyatt-centric-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=178125601_372523648_2_2_0&amp;highlighted_blocks=178125601_372523648_2_2_0&amp;matching_block_id=178125601_372523648_2_2_0&amp;sr_pri_blocks=178125601_372523648_2_2_0__17010&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Palm Beach Plaza Hotel</t>
+          <t>Hotel Bahamas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>US$60</t>
+          <t>US$69</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Muy bien</t>
+          <t>Bien</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>1.661</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/53269060.webp?k=014f28187b0e2e859046c7d721c5ba41a3e55d8c547a69fc35a21b55926d1934&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/369568534.webp?k=425dd5542c3131345397a5b5527d6c5edfef9d742a5dc1c810ae80dbcc000162&amp;o=</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/palm-beach-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=42608704_89173499_2_2_0&amp;highlighted_blocks=42608704_89173499_2_2_0&amp;matching_block_id=42608704_89173499_2_2_0&amp;sr_pri_blocks=42608704_89173499_2_2_0__6000&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/bahamas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=27213701_105781473_0_1_0&amp;highlighted_blocks=27213701_105781473_0_1_0&amp;matching_block_id=27213701_105781473_0_1_0&amp;sr_pri_blocks=27213701_105781473_0_1_0__6900&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>casa vegana</t>
+          <t>Palm Beach Plaza Hotel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>US$15</t>
+          <t>US$60</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fabuloso</t>
+          <t>Muy bien</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/490238586.webp?k=a754ec012519e25a0d38f6bfab967cd8666db8e50a972d15f9512d6b5684ac87&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/53269060.webp?k=014f28187b0e2e859046c7d721c5ba41a3e55d8c547a69fc35a21b55926d1934&amp;o=</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/posada-al-sur.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=35946716_367778613_1_0_0&amp;highlighted_blocks=35946716_367778613_1_0_0&amp;matching_block_id=35946716_367778613_1_0_0&amp;sr_pri_blocks=35946716_367778613_1_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/palm-beach-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=42608704_89173499_2_2_0&amp;highlighted_blocks=42608704_89173499_2_2_0&amp;matching_block_id=42608704_89173499_2_2_0&amp;sr_pri_blocks=42608704_89173499_2_2_0__6000&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AHIVÁ Espacio Temporal</t>
+          <t>Hilton Garden Inn Montevideo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>US$15</t>
+          <t>US$179</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Muy bien</t>
+          <t>Fabuloso</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1.119</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/274582835.webp?k=5fb2e8dea02005da6349337dcdf40c732f347f0670730e0e2f1687d4e51606da&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/484121001.webp?k=9ab016f190fa9540067c128ebefadc6370dd272e9af55a82a10d30e8179ef7ef&amp;o=</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/casa-magallanes.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=209765112_368770876_0_0_0&amp;highlighted_blocks=209765112_368770876_0_0_0&amp;matching_block_id=209765112_368770876_0_0_0&amp;sr_pri_blocks=209765112_368770876_0_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hilton-garden-inn-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=161858211_193753979_1_2_0&amp;highlighted_blocks=161858211_193753979_1_2_0&amp;matching_block_id=161858211_193753979_1_2_0&amp;sr_pri_blocks=161858211_193753979_1_2_0__17900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ibis Styles Montevideo Biarritz</t>
+          <t>casa vegana</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>US$85</t>
+          <t>US$15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Muy bien</t>
+          <t>Fabuloso</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.107</t>
+          <t>154</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/246309510.webp?k=ff002a3da11bc37800f923b8d98b0d28efc95caddada0930311eae052ddc4245&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/490238586.webp?k=a754ec012519e25a0d38f6bfab967cd8666db8e50a972d15f9512d6b5684ac87&amp;o=</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/ibis-styles-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=432406601_377053618_2_1_0&amp;highlighted_blocks=432406601_377053618_2_1_0&amp;matching_block_id=432406601_377053618_2_1_0&amp;sr_pri_blocks=432406601_377053618_2_1_0__8500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/posada-al-sur.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=35946716_367778613_1_0_0&amp;highlighted_blocks=35946716_367778613_1_0_0&amp;matching_block_id=35946716_367778613_1_0_0&amp;sr_pri_blocks=35946716_367778613_1_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sofitel Montevideo Casino Carrasco &amp; Spa</t>
+          <t>AHIVÁ Espacio Temporal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>US$306</t>
+          <t>US$15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,34 +1233,34 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>844</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/159588588.webp?k=c2c842cfadeae5bc798fbc0e5b7a930a8c04ababd7ab8e23ea2766f84dfca131&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/274582835.webp?k=5fb2e8dea02005da6349337dcdf40c732f347f0670730e0e2f1687d4e51606da&amp;o=</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/sofitel-montevideo-casino-carrasco-amp-spa.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=43381302_271948462_2_34_0&amp;highlighted_blocks=43381302_271948462_2_34_0&amp;matching_block_id=43381302_271948462_2_34_0&amp;sr_pri_blocks=43381302_271948462_2_34_0__30600&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/casa-magallanes.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=209765112_368770876_0_0_0&amp;highlighted_blocks=209765112_368770876_0_0_0&amp;matching_block_id=209765112_368770876_0_0_0&amp;sr_pri_blocks=209765112_368770876_0_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NH Montevideo Columbia</t>
+          <t>ibis Styles Montevideo Biarritz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US$83</t>
+          <t>US$85</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,128 +1270,128 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.086</t>
+          <t>2.107</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/228250284.webp?k=0a09bb184b6bf9cbb04a5d082b87429eaf114d01f3748eb6c816d94f2402513d&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/246309510.webp?k=ff002a3da11bc37800f923b8d98b0d28efc95caddada0930311eae052ddc4245&amp;o=</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/nh-columbia-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=0_0_1_1_0&amp;highlighted_blocks=0_0_1_1_0&amp;matching_block_id=0_0_1_1_0&amp;sr_pri_blocks=0_0_1_1_0__8322&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/ibis-styles-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=432406601_377053618_2_1_0&amp;highlighted_blocks=432406601_377053618_2_1_0&amp;matching_block_id=432406601_377053618_2_1_0&amp;sr_pri_blocks=432406601_377053618_2_1_0__8500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hotel Ciudadano Suites</t>
+          <t>Sofitel Montevideo Casino Carrasco &amp; Spa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US$100</t>
+          <t>US$306</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Fabuloso</t>
+          <t>Muy bien</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/211265813.webp?k=00b195368edd0f7d5637c3ce69de42d9fed9123a67f4868c57a3015cb2057db0&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/159588588.webp?k=c2c842cfadeae5bc798fbc0e5b7a930a8c04ababd7ab8e23ea2766f84dfca131&amp;o=</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/ciudadano-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=299408101_374426849_0_42_0&amp;highlighted_blocks=299408101_374426849_0_42_0&amp;matching_block_id=299408101_374426849_0_42_0&amp;sr_pri_blocks=299408101_374426849_0_42_0__10000&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/sofitel-montevideo-casino-carrasco-amp-spa.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=43381302_271948462_2_34_0&amp;highlighted_blocks=43381302_271948462_2_34_0&amp;matching_block_id=43381302_271948462_2_34_0&amp;sr_pri_blocks=43381302_271948462_2_34_0__30600&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Urbano Hotel</t>
+          <t>NH Montevideo Columbia</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>US$57</t>
+          <t>US$86</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bien</t>
+          <t>Muy bien</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.133</t>
+          <t>2.086</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/330790625.webp?k=7013e8e8a882047b603c55e3d33f81b61cf4d3b25a032e0e4d81ca70f0f2c43a&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/228250284.webp?k=0a09bb184b6bf9cbb04a5d082b87429eaf114d01f3748eb6c816d94f2402513d&amp;o=</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/urban-express.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=25766501_89153451_0_0_0&amp;highlighted_blocks=25766501_89153451_0_0_0&amp;matching_block_id=25766501_89153451_0_0_0&amp;sr_pri_blocks=25766501_89153451_0_0_0__5738&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/nh-columbia-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=24863901_94364966_0_2_0&amp;highlighted_blocks=24863901_94364966_0_2_0&amp;matching_block_id=24863901_94364966_0_2_0&amp;sr_pri_blocks=24863901_94364966_0_2_0__8628&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hotel Montevideo - Leading Hotels of the World</t>
+          <t>Hotel Ciudadano Suites</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>US$215</t>
+          <t>US$100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fantástico</t>
+          <t>Fabuloso</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1.305</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square200/405335192.webp?k=817a4cb6c2a8c2ec8f5dc7288dafdf7bd4ae39f40447f682e5a2f152857b45d9&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/211265813.webp?k=00b195368edd0f7d5637c3ce69de42d9fed9123a67f4868c57a3015cb2057db0&amp;o=</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKv0aetBsACAdICJGIwNDRhNzNmLTljOGItNDhlZS1hYzI1LTMyMTliYjMzNzljNtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=e4bf169727d4011c&amp;srepoch=1705633976&amp;all_sr_blocks=902994003_361096049_2_2_0&amp;highlighted_blocks=902994003_361096049_2_2_0&amp;matching_block_id=902994003_361096049_2_2_0&amp;sr_pri_blocks=902994003_361096049_2_2_0__21500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/ciudadano-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=299408101_374426849_0_42_0&amp;highlighted_blocks=299408101_374426849_0_42_0&amp;matching_block_id=299408101_374426849_0_42_0&amp;sr_pri_blocks=299408101_374426849_0_42_0__10000&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
     </row>

--- a/hotels_list.xlsx
+++ b/hotels_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>hotel_url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,7 +508,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/smart-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635536&amp;all_sr_blocks=116517101_89188931_1_2_0&amp;highlighted_blocks=116517101_89188931_1_2_0&amp;matching_block_id=116517101_89188931_1_2_0&amp;sr_pri_blocks=116517101_89188931_1_2_0__7000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/smart-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=116517101_89188931_1_2_0&amp;highlighted_blocks=116517101_89188931_1_2_0&amp;matching_block_id=116517101_89188931_1_2_0&amp;sr_pri_blocks=116517101_89188931_1_2_0__7000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>El Smart Hotel Montevideo se encuentra en el centro de Montevideo y ofrece habitaciones sofisticadas decoradas con elegancia. El establecimiento cuenta con restaurante y conexión WiFi gratuita.
+Las habitaciones del Smart Hotel Montevideo presentan una decoración elegante y cuentan con suelo de madera, aire acondicionado, TV de pantalla plana, caja fuerte y baño privado amplio.
+Todas ellas disfrutan de vistas preciosas a la ciudad. El establecimiento también dispone de instalaciones para reuniones y mostrador de información turística.
+El Smart Hotel Montevideo está ubicado a 200 metros de la plaza de la Independencia, a 300 metros del teatro Solís y a 600 metros de la plaza Cagancha. Asimismo, el establecimiento se halla a 30 km del aeropuerto internacional Carrasco.</t>
         </is>
       </c>
     </row>
@@ -540,7 +553,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hispano.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635536&amp;all_sr_blocks=31207401_89160692_0_0_0&amp;highlighted_blocks=31207401_89160692_0_0_0&amp;matching_block_id=31207401_89160692_0_0_0&amp;sr_pri_blocks=31207401_89160692_0_0_0__4875&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hispano.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=31207401_89160692_0_0_0&amp;highlighted_blocks=31207401_89160692_0_0_0&amp;matching_block_id=31207401_89160692_0_0_0&amp;sr_pri_blocks=31207401_89160692_0_0_0__4875&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A solo 3 manzanas del palacio Estévez, el edificio principal del gobierno, el Hispano ofrece habitaciones bien decoradas, con aire acondicionado y WiFi gratuita en Montevideo. Además, se facilita un servicio de alquiler de coches.
+Las habitaciones del Hotel Hispano tienen suelo de madera con cortinas de techo a suelo. También tienen colchas a juego en tonos azul oscuro y ocre.
+Las habitaciones incluyen escritorio y televisión por cable. Todas las habitaciones disponen de baño privado.
+El Hispano está a 15 minutos en coche del Río de la Plata y ofrece servicio de alquiler de bicicletas. El mostrador de información turística puede ayudar a los huéspedes con consejos e información para disfrutar de la ciudad.</t>
         </is>
       </c>
     </row>
@@ -577,7 +598,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hampton-by-hilton-montevideo-carrasco.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=247027201_274562642_2_1_0&amp;highlighted_blocks=247027201_274562642_2_1_0&amp;matching_block_id=247027201_274562642_2_1_0&amp;sr_pri_blocks=247027201_274562642_2_1_0__13900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hampton-by-hilton-montevideo-carrasco.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=247027201_274562642_2_1_0&amp;highlighted_blocks=247027201_274562642_2_1_0&amp;matching_block_id=247027201_274562642_2_1_0&amp;sr_pri_blocks=247027201_274562642_2_1_0__13900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>El Hampton By Hilton Montevideo Carrasco está ubicado en Montevideo, a 2 km del aeropuerto internacional de Carrasco. El establecimiento ofrece recepción 24 horas, WiFi en todas las zonas, piscina al aire libre, centro de fitness y aparcamiento privado gratuito. Se sirve el desayuno.
+Todas las habitaciones disponen de aire acondicionado, TV de pantalla plana y hervidor de agua. También tienen baño privado con artículos de aseo gratuitos y secador de pelo. Las suites cuentan con zona de estar y un aseo adicional.
+El uso del centro de negocios puede reservarse de forma gratuita. Las instalaciones para reuniones pueden utilizarse por un suplemento, al igual que el servicio de lavandería.
+El Hampton Hilton Montevideo Carrasco se encuentra a 17 km de la plaza Independencia y del Teatro Solís.</t>
         </is>
       </c>
     </row>
@@ -614,7 +643,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/tres-cruces.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=59191003_265777979_0_2_0&amp;highlighted_blocks=59191003_265777979_0_2_0&amp;matching_block_id=59191003_265777979_0_2_0&amp;sr_pri_blocks=59191003_265777979_0_2_0__6500&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/tres-cruces.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=59191003_265777979_0_2_0&amp;highlighted_blocks=59191003_265777979_0_2_0&amp;matching_block_id=59191003_265777979_0_2_0&amp;sr_pri_blocks=59191003_265777979_0_2_0__6500&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El Hotel Tres Cruces está situado a 100 metros de la terminal de autobuses y el centro comercial de Tres Cruces, en Montevideo. Ofrece conexión Wi-Fi gratuita y un desayuno bufé. También dispone de un bar.
+Las habitaciones del Hotel Tres Cruces ofrecen un ambiente tranquilo y cuentan con baño privado, aire acondicionado y TV por cable.
+El Tres Cruces ofrece cajas fuertes para que los huéspedes puedan guardar sus objetos personales.
+El edificio cuenta con ascensor y ofrece servicio de recepción las 24 horas. El bar está abierto todos los días hasta las 22:00.
+El Hotel Tres Cruces está a 2 km de las playas de Pocitos y Ramírez y a 200 metros de la parada del autobús que va a las playas. El aeropuerto de Carrasco se encuentra a 25 km. Además, hay aparcamiento privado gratuito en las inmediaciones.</t>
         </is>
       </c>
     </row>
@@ -651,7 +689,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/days-inn.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=24655511_362025972_2_2_0&amp;highlighted_blocks=24655511_362025972_2_2_0&amp;matching_block_id=24655511_362025972_2_2_0&amp;sr_pri_blocks=24655511_362025972_2_2_0__6600&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/days-inn.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=24655511_362025972_2_2_0&amp;highlighted_blocks=24655511_362025972_2_2_0&amp;matching_block_id=24655511_362025972_2_2_0&amp;sr_pri_blocks=24655511_362025972_2_2_0__6600&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Este hotel goza de una ubicación idónea en el centro de Montevideo, a solo unos minutos a pie del Obelisco y del centro comercial Tres Cruces Shopping. Se facilita aparcamiento privado por un suplemento. También se proporciona WiFi gratuita.
+El Days Inn by Wyndham Montevideo sirve desayunos.
+Todas las habitaciones del Days Inn by Wyndham Montevideo presentan una decoración sencilla y cuentan con minibar, aire acondicionado y escritorio.
+El Days Inn by Wyndham Montevideo está situado a poca distancia de las tiendas, restaurantes y playas de Montevideo. La recepción está abierta las 24 horas y ofrece servicio de traslado.
+El Days Inn by Wyndham Montevideo se encuentra a 2,5 km de la plaza del Entrevero, a 3,2 km de la plaza de la Independencia y a 4,7 km del recinto Antel Arena. Asimismo, el establecimiento se halla a 14,2 km del aeropuerto internacional de Carrasco.</t>
         </is>
       </c>
     </row>
@@ -688,7 +735,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/dazzler-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=55450714_266394543_2_1_0&amp;highlighted_blocks=55450714_266394543_2_1_0&amp;matching_block_id=55450714_266394543_2_1_0&amp;sr_pri_blocks=55450714_266394543_2_1_0__12500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/dazzler-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=55450714_266394543_2_1_0&amp;highlighted_blocks=55450714_266394543_2_1_0&amp;matching_block_id=55450714_266394543_2_1_0&amp;sr_pri_blocks=55450714_266394543_2_1_0__12500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>El Dazzler by Wyndham Montevideo se encuentra en Montevideo y ofrece piscina al aire libre, centro de fitness, spa, WiFi gratuita y desayuno buffet. El establecimiento está situado en el barrio de Punta Carretas, rodeado de una zona comercial con restaurantes y lugares de interés cultural. El establecimiento se halla a 500 metros del paseo marítimo y a 3 km del centro histórico.
+Las habitaciones del Dazzler by Wyndham Montevideo gozan de un ambiente tranquilo y cuentan con TV de pantalla plana, minibar, calefacción central, armario y caja fuerte. El baño privado está equipado con bañera y secador de pelo. 
+El spa del Dazzler by Wyndham Montevideo incluye sauna, baño turco y bañera. 
+El Dazzler by Wyndham Montevideo tiene un bonito jardín y un centro de negocios. Además, hay servicio de habitaciones y servicio de lavandería disponibles bajo petición.
+El Dazzler Montevideo se sitúa a 2,1 km del centro de la ciudad y a 19 km del aeropuerto internacional de Carrasco. Se facilita aparcamiento por un suplemento y sujeto a disponibilidad.</t>
         </is>
       </c>
     </row>
@@ -725,7 +781,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/palacio.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=40020801_278177017_0_0_0&amp;highlighted_blocks=40020801_278177017_0_0_0&amp;matching_block_id=40020801_278177017_0_0_0&amp;sr_pri_blocks=40020801_278177017_0_0_0__4800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/palacio.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=40020801_278177017_0_0_0&amp;highlighted_blocks=40020801_278177017_0_0_0&amp;matching_block_id=40020801_278177017_0_0_0&amp;sr_pri_blocks=40020801_278177017_0_0_0__4800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>El Hotel Palacio se encuentra en el centro de Montevideo, a solo 200 metros del teatro Solís, y ofrece habitaciones con conexión Wi-Fi gratuita y TV por cable. El mercado del puerto está situado a 1 km, en el casco antiguo.
+Las habitaciones del Hotel Palacio son muy amplias y cuentan con un mobiliario antiguo, suelo de parqué y grandes ventanas con vistas a la ciudad. Todas ellas disponen de calefacción, ventilador y baño privado.
+El Hotel Palacio se encuentra cerca de varias galerías de arte, tiendas de antigüedades y bares, a 3 km de la terminal de autobuses de Tres Cruces y a 20 km del aeropuerto internacional de Carrasco.</t>
         </is>
       </c>
     </row>
@@ -762,7 +825,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/ibis-montevideo-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=48367101_377053749_2_2_0&amp;highlighted_blocks=48367101_377053749_2_2_0&amp;matching_block_id=48367101_377053749_2_2_0&amp;sr_pri_blocks=48367101_377053749_2_2_0__6500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/ibis-montevideo-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=48367101_377053749_2_2_0&amp;highlighted_blocks=48367101_377053749_2_2_0&amp;matching_block_id=48367101_377053749_2_2_0&amp;sr_pri_blocks=48367101_377053749_2_2_0__6500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ibis Montevideo Rambla está en Montevideo, a 12 min a pie de Playa Ramírez y a 1,5 km de Plaza Cagancha, y ofrece alojamiento con bar. Este hotel de 3 estrellas ofrece restaurante y habitaciones con aire acondicionado, wifi gratis y baño privado. Hay parking privado en el propio alojamiento.
+En el hotel, cada habitación dispone de escritorio. Todas las habitaciones del alojamiento están equipadas con TV de pantalla plana con canales por cable y caja fuerte.
+El desayuno está disponible cada mañana e incluye opciones buffet, continentales o sin gluten.
+Ibis Montevideo Rambla ofrece terraza solárium.
+El personal habla inglés, español y portugués, y estará encantado de dar consejos sobre la zona en recepción.
+Teatro Solís está a 2,3 km del alojamiento, y Plaza de la Independencia está a 2,3 km. El aeropuerto (Aeropuerto internacional de Carrasco) está a 18 km.</t>
         </is>
       </c>
     </row>
@@ -799,7 +872,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/circus-hostel-amp-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=291382202_381373332_0_0_0&amp;highlighted_blocks=291382202_381373332_0_0_0&amp;matching_block_id=291382202_381373332_0_0_0&amp;sr_pri_blocks=291382202_381373332_0_0_0__1840&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/circus-hostel-amp-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=291382202_381373332_0_0_0&amp;highlighted_blocks=291382202_381373332_0_0_0&amp;matching_block_id=291382202_381373332_0_0_0&amp;sr_pri_blocks=291382202_381373332_0_0_0__1840&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Circus Hostel&amp;Hotel Montevideo se encuentra en Montevideo, a 4 min a pie de Teatro Solís, y ofrece mostrador de información turística, habitaciones libres de humo, salón de uso común, wifi gratis en todo el alojamiento y terraza. Este alojamiento está muy cerca de lugares de interés como Plaza de la Independencia, Plaza Cagancha y Puerto de Montevideo. El alojamiento dispone de personal de animación y recepción 24 horas.
+En el albergue, todas las habitaciones cuentan con aire acondicionado y baño privado.
+Cerca del alojamiento hay puntos de interés como Mercado del Puerto de Montevideo, El Cabildo y Palacio Taranco. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 19 km del alojamiento.</t>
         </is>
       </c>
     </row>
@@ -836,7 +916,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/pocitos-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=24621202_89152397_0_33_0&amp;highlighted_blocks=24621202_89152397_0_33_0&amp;matching_block_id=24621202_89152397_0_33_0&amp;sr_pri_blocks=24621202_89152397_0_33_0__11016&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/pocitos-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=24621202_89152397_0_33_0&amp;highlighted_blocks=24621202_89152397_0_33_0&amp;matching_block_id=24621202_89152397_0_33_0&amp;sr_pri_blocks=24621202_89152397_0_33_0__11016&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>El Pocitos Plaza ofrece alojamiento en la exclusiva zona de Pocitos, a 5 minutos del centro de Montevideo y a solo 400 metros de la playa. Se ofrece WiFi gratuita y aparcamiento privado, por un suplemento.
+Las habitaciones del Pocitos Hotel tienen aire acondicionado, camas cómodas y baño privado con secador de pelo. Algunas habitaciones disponen de balcón y zona de estar con TV por cable y escritorio. 
+En el establecimiento hay una sauna, un solárium, una terraza y un bar, perfecto para tomar algo y charlar con el resto de huéspedes. El hotel sirve una merienda gratuita todos los días. Se ofrecen sombrillas, sillas y toallas para la playa. 
+La rambla de Montevideo está a solo 250 metros y alberga tiendas y sitios para comer. La playa de Pocitos está a 400 metros.</t>
         </is>
       </c>
     </row>
@@ -873,7 +961,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/crystal-palace.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=25903801_328913129_0_42_0&amp;highlighted_blocks=25903801_328913129_0_42_0&amp;matching_block_id=25903801_328913129_0_42_0&amp;sr_pri_blocks=25903801_328913129_0_42_0__6300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/crystal-palace.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=25903801_328913129_0_42_0&amp;highlighted_blocks=25903801_328913129_0_42_0&amp;matching_block_id=25903801_328913129_0_42_0&amp;sr_pri_blocks=25903801_328913129_0_42_0__6300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>El Crystal Palace Hotel se encuentra en la avenida 18 de Julio, en Montevideo y ofrece habitaciones con aire acondicionado y WiFi gratuita. También alberga un restaurante de cocina regional. Todos los días se sirve un desayuno.
+Las habitaciones del Crystal Palace Hotel son amplias y sencillas. También disponen de minibar y caja fuerte. Algunas tienen bañera de hidromasaje o vistas panorámicas a la ciudad.
+El Palace Hotel proporciona servicios de lavandería y de habitaciones. También cuenta con recepción 24 horas y centro de fitness.
+La Universidad de la República está a solo 600 metros del Crystal Palace Hotel.</t>
         </is>
       </c>
     </row>
@@ -910,7 +1006,16 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/radisson-montevideo-victoria-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=0_0_1_0_0&amp;highlighted_blocks=0_0_1_0_0&amp;matching_block_id=0_0_1_0_0&amp;sr_pri_blocks=0_0_1_0_0__12644&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/radisson-montevideo-victoria-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=0_0_1_0_0&amp;highlighted_blocks=0_0_1_0_0&amp;matching_block_id=0_0_1_0_0&amp;sr_pri_blocks=0_0_1_0_0__12644&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>El Radisson Montevideo Victoria Plaza está ubicado en pleno centro de la ciudad, frente a la plaza Independencia, y ofrece vistas impresionantes a la bahía del puerto. Este hotel cuenta con gimnasio, piscina cubierta, spa, salón de masajes, sauna, zona para correr, casino y conserje. 
+Las habitaciones del Radisson Montevideo Victoria Plaza son confortables y disponen de WiFi gratuita, TV por cable, cafetera, minibar y baño privado con bañera. Las suites son amplias y tienen zona de estar independiente y vistas impresionantes al Río de la Plata.
+El Radisson Victoria alberga varios sitios para comer, entre ellos un restaurante de especialidades uruguayas y el Bistró Victoria, que sirve una selección de cócteles. También alberga el Baccarat Café. Se sirve un desayuno buffet a diario.
+El mostrador de información turística del hotel ofrece un servicio de reserva de excursiones al Mercado del Puerto, al Museo del Gaucho y al centro histórico (Ciudad Vieja). Este hotel cuenta con solárium, centro de negocios y club infantil. 
+El Radisson Montevideo se encuentra a solo 13,2 km del aeropuerto internacional de Carrasco.</t>
         </is>
       </c>
     </row>
@@ -947,81 +1052,107 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/el-viajero-downtown.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=26266231_371753717_1_2_0&amp;highlighted_blocks=26266231_371753717_1_2_0&amp;matching_block_id=26266231_371753717_1_2_0&amp;sr_pri_blocks=26266231_371753717_1_2_0__1659&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/el-viajero-downtown.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=26266231_371753717_1_2_0&amp;highlighted_blocks=26266231_371753717_1_2_0&amp;matching_block_id=26266231_371753717_1_2_0&amp;sr_pri_blocks=26266231_371753717_1_2_0__1659&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Desde el 1 de abril nos trasladamos a un nuevo, más moderno, edificio de 6 pisos situado en la Ciudad Vieja, cerca de las principales atracciones turísticas de la ciudad. El Viajero Hostel ocupa un edificio histórico reformado y ofrece alojamiento a 10 minutos a pie de la Rambla y del océano Atlántico. Ofrece conexión Wi-Fi gratuita en las zonas comunes y un patio interior.
+Las habitaciones del Viajero Hostel están equipadas con aire acondicionado y baño privado, mientras que otras tienen baño compartido.
+El bar del albergue sirve bebidas, cócteles y aperitivos. Gracias a su céntrica ubicación, hay muchos restaurantes y cafeterías en los alrededores.
+El personal del mostrador de información turística del Viajero Hostel ofrece información sobre excursiones por la ciudad. El albergue ofrece servicio de alquiler de bicicletas. La estación central de tren de Montevideo está a 1 km.
+Alójese en habitaciones privadas, algunas de las cuales son de estilo dúplex, con una amplia y cómoda sala de estar en el piso de abetos donde podrá leer un libro o trabajar, antes de subir a descansar en el segundo piso con una cama privada y baño. O si lo prefieres, quédate en una habitación compartida (algunas son exclusivamente para mujeres). Todas las habitaciones tienen cortinas para garantizar su privacidad.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hotel America</t>
+          <t>After Hotel Montevideo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>US$60</t>
+          <t>US$86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bien</t>
+          <t>Muy bien</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.092</t>
+          <t>2.513</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/255847283.webp?k=9d78ea03287d4cad06d4a7bf0d8b6e1d8dd29df6b8af47feb815bb2578f7ccbc&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/490562653.webp?k=c67c7105d9567dbd5098a25a573ea406ebd2c0bf6c8fd6e680b4f519c3fee1b3&amp;o=</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/america.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=35340004_379748733_0_1_0&amp;highlighted_blocks=35340004_379748733_0_1_0&amp;matching_block_id=35340004_379748733_0_1_0&amp;sr_pri_blocks=35340004_379748733_0_1_0__6000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/after-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=34692202_92485235_0_1_0&amp;highlighted_blocks=34692202_92485235_0_1_0&amp;matching_block_id=34692202_92485235_0_1_0&amp;sr_pri_blocks=34692202_92485235_0_1_0__8550&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Este hotel está situado a solo 50 metros del mar y a 3 calles del centro de Montevideo y del distrito financiero, y dispone de una piscina, una terraza en la azotea y un gimnasio panorámico con equipos de gama alta. Las habitaciones tienen conexión WiFi gratuita.
+Las habitaciones del After Hotel Montevideo están provistas de TV por cable de pantalla plana, caja fuerte, escritorio amplio, camas grandes y extragrandes, y baño con bañera y artículos de aseo de gran calidad. Hay habitaciones con instalaciones para personas de movilidad reducida.
+Todos los días se sirve un desayuno buffet que incluye una selección de zumos naturales, fruta y cruasanes. Además, se puede disfrutar de platos de cocina mediterránea en el restaurante Morado.
+El establecimiento ofrece un servicio de enlace con el aeropuerto internacional de Carrasco, ubicado a 12 km.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>After Hotel Montevideo</t>
+          <t>Hotel America</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>US$90</t>
+          <t>US$60</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Muy bien</t>
+          <t>Bien</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.513</t>
+          <t>3.092</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/490562653.webp?k=c67c7105d9567dbd5098a25a573ea406ebd2c0bf6c8fd6e680b4f519c3fee1b3&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/255847283.webp?k=9d78ea03287d4cad06d4a7bf0d8b6e1d8dd29df6b8af47feb815bb2578f7ccbc&amp;o=</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/after-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=34692202_92485235_0_1_0&amp;highlighted_blocks=34692202_92485235_0_1_0&amp;matching_block_id=34692202_92485235_0_1_0&amp;sr_pri_blocks=34692202_92485235_0_1_0__9000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/america.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=35340004_379748733_0_1_0&amp;highlighted_blocks=35340004_379748733_0_1_0&amp;matching_block_id=35340004_379748733_0_1_0&amp;sr_pri_blocks=35340004_379748733_0_1_0__6000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>El Hotel America, situado a solo 5 calles del pintoresco centro histórico de Montevideo, la Ciudad Vieja, ofrece habitaciones con WiFi gratis. La playa de Pocitos queda a 15 minutos en coche. Además, hay aparcamiento privado.
+El Hotel America dispone de habitaciones con aire acondicionado, TV LED, minibar y baño privado con ducha y artículos de aseo.
+El America sirve un desayuno buffet con zumos naturales y cruasanes.
+Asimismo, el hotel cuenta con recepción las 24 horas, mostrador de información turística y servicio de alquiler de coches.
+El aeropuerto de Carrasco se halla a 23 km.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1189,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hyatt-centric-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=178125601_372523648_2_2_0&amp;highlighted_blocks=178125601_372523648_2_2_0&amp;matching_block_id=178125601_372523648_2_2_0&amp;sr_pri_blocks=178125601_372523648_2_2_0__17010&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hyatt-centric-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=178125601_372523648_2_2_0&amp;highlighted_blocks=178125601_372523648_2_2_0&amp;matching_block_id=178125601_372523648_2_2_0&amp;sr_pri_blocks=178125601_372523648_2_2_0__17010&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>El Hyatt Centric Montevideo ofrece alojamiento en el bulevar Montevideo Oceanside, a 500 metros del World Trade Center de Montevideo, y cuenta con una piscina cubierta y un restaurante. Dispone de instalaciones de spa. Cuenta con WiFi gratuita. 
+Todas las habitaciones del Hyatt Centric Montevideo son elegantes y modernas y cuentan con aire acondicionado, TV de pantalla plana, caja fuerte y escritorio. Algunas ofrecen vistas al río y la ciudad. Algunas tienen zona de cocina y zona de estar. Todas disponen de baño privado con secador de pelo. 
+En el Hyatt Centric Montevideo hay instalaciones de negocios, servicio de conserjería y servicio de aparcacoches. 
+El Hyatt Centric Montevideo se encuentra en el barrio de Pocitos, a 5 km de la plaza Cagancha y a 6 km del mercado del puerto de Montevideo. Se sitúa a 14 km del aeropuerto internacional de Carrasco, el más cercano.</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1234,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/bahamas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=27213701_105781473_0_1_0&amp;highlighted_blocks=27213701_105781473_0_1_0&amp;matching_block_id=27213701_105781473_0_1_0&amp;sr_pri_blocks=27213701_105781473_0_1_0__6900&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/bahamas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=27213701_105781473_0_1_0&amp;highlighted_blocks=27213701_105781473_0_1_0&amp;matching_block_id=27213701_105781473_0_1_0&amp;sr_pri_blocks=27213701_105781473_0_1_0__6900&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>El Bahamas goza de una ubicación excelente, a 2 calles del paseo marítimo de la Rambla Costanera de Canelones, y dispone de habitaciones luminosas con comodidades modernas. Hay aparcamiento y WiFi gratuita en todas las instalaciones del hotel.
+Los alojamientos del Hotel Bahamas cuentan con aire acondicionado, TV por cable, minibar, WiFi gratuita y teléfono. Se proporciona servicio de habitaciones y la recepción abre las 24 horas.
+El Hotel Bahamas se encuentra a 3 calles de la avenida de la Playa y del parque Roosevelt. El hotel se halla a solo 5 minutos en coche del aeropuerto internacional de Carrasco y a 25 minutos en coche del centro de Canelones. Se facilita servicio de alquiler de bicicletas.</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1278,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/palm-beach-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=42608704_89173499_2_2_0&amp;highlighted_blocks=42608704_89173499_2_2_0&amp;matching_block_id=42608704_89173499_2_2_0&amp;sr_pri_blocks=42608704_89173499_2_2_0__6000&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/palm-beach-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=42608704_89173499_2_2_0&amp;highlighted_blocks=42608704_89173499_2_2_0&amp;matching_block_id=42608704_89173499_2_2_0&amp;sr_pri_blocks=42608704_89173499_2_2_0__6000&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Este hotel moderno presenta una decoración elegante y está ubicado en la zona de Pocitos, a solo 1 calle del bulevar junto al río. Las habitaciones están equipadas con wifi gratuita. El hotel está frente a la plaza Gomensoro.
+El Palm Beach Plaza Hotel ofrece habitaciones con aire acondicionado, caja fuerte y TV de pantalla plana con canales por cable. Todas las habitaciones tienen baño privado con ducha.
+Se sirve un desayuno buffet completo a diario por un suplemento de 10 USD por persona. El servicio de habitaciones ofrece aperitivos y bebidas.
+El centro comercial Punta Carretas queda a 5 minutos a pie. El personal del mostrador de información turística puede recomendar lugares de interés en la zona. Se puede organizar un servicio de alquiler de coches.
+El aeropuerto internacional de Carrasco se halla a 14 km. Hay recepción 24 horas.</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1324,16 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/hilton-garden-inn-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=161858211_193753979_1_2_0&amp;highlighted_blocks=161858211_193753979_1_2_0&amp;matching_block_id=161858211_193753979_1_2_0&amp;sr_pri_blocks=161858211_193753979_1_2_0__17900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/hilton-garden-inn-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=161858211_193753979_1_2_0&amp;highlighted_blocks=161858211_193753979_1_2_0&amp;matching_block_id=161858211_193753979_1_2_0&amp;sr_pri_blocks=161858211_193753979_1_2_0__17900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>El Hilton Garden Inn Montevideo se encuentra en Montevideo y ofrece acceso directo al centro comercial Montevideo. El establecimiento alberga el restaurante Sudestada, que sirve comida deliciosa, el bar salón La Proa y una piscina cubierta. La WiFi y el aparcamiento están disponibles de forma gratuita.
+Todas las habitaciones tienen TV de pantalla plana con canales por cable, minibar y baño privado. Algunos alojamientos tienen zona de estar.
+El Hilton Garden Inn Montevideo cuenta con centro de fitness, recepción 24 horas y el bar salón La Proa. Se facilita servicio de alquiler de coches y bicicletas. El servicio de enlace con el aeropuerto comporta un suplemento. Hay consigna de equipaje.
+El business center se puede reservar de forma gratuita, mientras que las instalaciones para reuniones se pueden adquirir por un cargo adicional al igual que el servicio de lavandería.
+El Hilton Garden Inn Montevideo está ubicado a 3 calles del paseo marítimo y a 6 km de la plaza de la Independencia. Queda a 13 km del aeropuerto internacional Carrasco, el más cercano.</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1370,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/posada-al-sur.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=35946716_367778613_1_0_0&amp;highlighted_blocks=35946716_367778613_1_0_0&amp;matching_block_id=35946716_367778613_1_0_0&amp;sr_pri_blocks=35946716_367778613_1_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/posada-al-sur.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=35946716_367778613_1_0_0&amp;highlighted_blocks=35946716_367778613_1_0_0&amp;matching_block_id=35946716_367778613_1_0_0&amp;sr_pri_blocks=35946716_367778613_1_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>La casa vegana se encuentra a solo 1 km del centro de Montevideo y ofrece habitaciones con conexión Wi-Fi gratuita y calefacción. También hay una cocina compartida. La playa de Ramírez está a 3 km.
+Las habitaciones de la casa vegana están decoradas con suelo de parqué y paredes de ladrillo visto y cuentan con ventiladores de techo y zona de estar amplia. Algunas tienen baño privado.
+Los huéspedes pueden preparar sus propias comidas en la cocina compartida, que incluye zona de comedor.
+Hay una azotea.
+Este establecimiento es vegano, solo se permite comida vegana.
+Se ofrece servicio de enlace con el aeropuerto.  La casa vegana está a 30 km del aeropuerto de Carrasco.</t>
         </is>
       </c>
     </row>
@@ -1243,24 +1417,33 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/casa-magallanes.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=209765112_368770876_0_0_0&amp;highlighted_blocks=209765112_368770876_0_0_0&amp;matching_block_id=209765112_368770876_0_0_0&amp;sr_pri_blocks=209765112_368770876_0_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/casa-magallanes.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=209765112_368770876_0_0_0&amp;highlighted_blocks=209765112_368770876_0_0_0&amp;matching_block_id=209765112_368770876_0_0_0&amp;sr_pri_blocks=209765112_368770876_0_0_0__1500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>La Casa Magallanes ofrece WiFi gratuita en todas las instalaciones y alojamiento en Montevideo, a 1,1 km de la plaza de Cagancha.
+El alojamiento da acceso a un baño compartido.
+Hay un mostrador de información turística.
+La Plaza de la Independencia se encuentra a 1,8 km de la Casa Magallanes, mientras que Oceanside Boulevard está a 1,9 km del
+ establecimiento. El aeropuerto más cercano es el aeropuerto internacional de Carrasco, situado a 17 km de la Casa Magallanes.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ibis Styles Montevideo Biarritz</t>
+          <t>Puerto Mercado Hotel</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US$85</t>
+          <t>US$65</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1270,29 +1453,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.107</t>
+          <t>1.584</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/246309510.webp?k=ff002a3da11bc37800f923b8d98b0d28efc95caddada0930311eae052ddc4245&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/37582154.webp?k=252cab8532eb345e059fe101bc297c3bc35344af2961397adebfb4131e7066e0&amp;o=</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/ibis-styles-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=432406601_377053618_2_1_0&amp;highlighted_blocks=432406601_377053618_2_1_0&amp;matching_block_id=432406601_377053618_2_1_0&amp;sr_pri_blocks=432406601_377053618_2_1_0__8500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/ak-design.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=54784504_295534211_0_2_0&amp;highlighted_blocks=54784504_295534211_0_2_0&amp;matching_block_id=54784504_295534211_0_2_0&amp;sr_pri_blocks=54784504_295534211_0_2_0__6480&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>El Puerto Mercado Hotel dispone de una decoración moderna y elegante, y ofrece habitaciones cómodas a 100 metros del centro cultural Mercado del Puerto. Se proporciona WiFi gratuita.
+El Puerto Mercado Hotel cuenta con habitaciones con TV de pantalla plana, minibar y baño privado.
+La costa de Montevideo, el paseo marítimo, está a 10 calles. El personal del mostrador de información turística puede recomendar lugares de interés de la zona.
+Además, el establecimiento ofrece consigna de equipaje y recepción 24 horas.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sofitel Montevideo Casino Carrasco &amp; Spa</t>
+          <t>ibis Styles Montevideo Biarritz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US$306</t>
+          <t>US$85</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1307,34 +1498,43 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>2.107</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/159588588.webp?k=c2c842cfadeae5bc798fbc0e5b7a930a8c04ababd7ab8e23ea2766f84dfca131&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/246309510.webp?k=ff002a3da11bc37800f923b8d98b0d28efc95caddada0930311eae052ddc4245&amp;o=</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/sofitel-montevideo-casino-carrasco-amp-spa.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=43381302_271948462_2_34_0&amp;highlighted_blocks=43381302_271948462_2_34_0&amp;matching_block_id=43381302_271948462_2_34_0&amp;sr_pri_blocks=43381302_271948462_2_34_0__30600&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/ibis-styles-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=432406601_377053618_2_1_0&amp;highlighted_blocks=432406601_377053618_2_1_0&amp;matching_block_id=432406601_377053618_2_1_0&amp;sr_pri_blocks=432406601_377053618_2_1_0__8500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ibis Styles Montevideo Biarritz, que tiene salón de uso común, restaurantey bar, está en Montevideo, a 13 min a pie de Playa de los Pocitos. Este hotel de 3 estrellas ofrece centro de fitness y tiene habitaciones con aire acondicionado, wifi gratis y baño privado. El alojamiento dispone de traslado para ir o volver del aeropuerto y también hay servicio de alquiler de bicicletas.
+En el hotel, todas las habitaciones disponen de armario. En ibis Styles Montevideo Biarritz, cada habitación cuenta con escritorio y TV de pantalla plana.
+En el alojamiento se puede disfrutar de un desayuno buffet.
+En la recepción 24 horas se habla inglés, español y portugués, y el personal está dispuesto a ayudar en cualquier momento.
+Playa Ramírez está a 14 min a pie del alojamiento, y Terminal Tres Cruces está a 3,2 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 16 km.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NH Montevideo Columbia</t>
+          <t>Sofitel Montevideo Casino Carrasco &amp; Spa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>US$86</t>
+          <t>US$306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1344,54 +1544,2324 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.086</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/228250284.webp?k=0a09bb184b6bf9cbb04a5d082b87429eaf114d01f3748eb6c816d94f2402513d&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/159588588.webp?k=c2c842cfadeae5bc798fbc0e5b7a930a8c04ababd7ab8e23ea2766f84dfca131&amp;o=</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/nh-columbia-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=24863901_94364966_0_2_0&amp;highlighted_blocks=24863901_94364966_0_2_0&amp;matching_block_id=24863901_94364966_0_2_0&amp;sr_pri_blocks=24863901_94364966_0_2_0__8628&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/sofitel-montevideo-casino-carrasco-amp-spa.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=43381302_271948462_2_34_0&amp;highlighted_blocks=43381302_271948462_2_34_0&amp;matching_block_id=43381302_271948462_2_34_0&amp;sr_pri_blocks=43381302_271948462_2_34_0__30600&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>El Sofitel Montevideo dispone de spa, gimnasio, piscina cubierta y piscina exterior. Ofrece habitaciones elegantes con conexión Wi-Fi gratuita y se encuentra a solo 5 minutos en coche del aeropuerto de Montevideo, en el barrio de Carrasco. El desayuno es gratuito para los menores de 12 años.
+Las habitaciones del Sofitel Montevideo son elegantes y cuentan con aire acondicionado, baño privado y artículos de aseo gratuitos. Algunas gozan de vistas a la ciudad.
+El restaurante del Sofitel Montevideo Casino Carrasco &amp; Spa sirve cocina francesa a la carta, mientras que el bar ofrece bebidas y música en directo.
+El hotel se encuentra a 20 minutos en coche del centro de Montevideo.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>NH Montevideo Columbia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>US$86</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.086</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/228250284.webp?k=0a09bb184b6bf9cbb04a5d082b87429eaf114d01f3748eb6c816d94f2402513d&amp;o=</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/nh-columbia-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK14qetBsACAdICJDg0MjQ0ZTBkLTU5YWUtNGE5Mi04N2Q2LTc0ZDAzZmUzOTcwNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=0f3d1ada5be40189&amp;srepoch=1705636157&amp;all_sr_blocks=24863901_94364966_0_2_0&amp;highlighted_blocks=24863901_94364966_0_2_0&amp;matching_block_id=24863901_94364966_0_2_0&amp;sr_pri_blocks=24863901_94364966_0_2_0__8628&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>El NH Montevideo Columbia ofrece habitaciones elegantes con wifi gratuita en Ciudad Vieja, un barrio histórico de Montevideo. El establecimiento ofrece vistas panorámicas al Río de la Plata y está a poca distancia a pie de varios lugares de interés turístico. 
+Las habitaciones del NH Montevideo Columbia son elegantes y disponen de TV LCD, aire acondicionado y minibar.
+El hotel alberga un bar restaurante elegante que sirve platos regionales e internacionales. En el centro de bienestar del NH Montevideo Columbia se ofrece servicio de masajes. También hay instalaciones de fitness. 
+Se facilita aparcamiento gratuito.
+El NH Montevideo Columbia se sitúa a 350 metros del Teatro Solís y a 400 metros de El Cabildo. La plaza de la Independencia está a 550 metros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NH Montevideo Columbia</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>US$86</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.086</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/228250284.webp?k=0a09bb184b6bf9cbb04a5d082b87429eaf114d01f3748eb6c816d94f2402513d&amp;o=</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/nh-columbia-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=26&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=24863901_94364966_0_2_0&amp;highlighted_blocks=24863901_94364966_0_2_0&amp;matching_block_id=24863901_94364966_0_2_0&amp;sr_pri_blocks=24863901_94364966_0_2_0__8628&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>El NH Montevideo Columbia ofrece habitaciones elegantes con wifi gratuita en Ciudad Vieja, un barrio histórico de Montevideo. El establecimiento ofrece vistas panorámicas al Río de la Plata y está a poca distancia a pie de varios lugares de interés turístico. 
+Las habitaciones del NH Montevideo Columbia son elegantes y disponen de TV LCD, aire acondicionado y minibar.
+El hotel alberga un bar restaurante elegante que sirve platos regionales e internacionales. En el centro de bienestar del NH Montevideo Columbia se ofrece servicio de masajes. También hay instalaciones de fitness. 
+Se facilita aparcamiento gratuito.
+El NH Montevideo Columbia se sitúa a 350 metros del Teatro Solís y a 400 metros de El Cabildo. La plaza de la Independencia está a 550 metros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Hotel Ciudadano Suites</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>US$100</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1.305</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/211265813.webp?k=00b195368edd0f7d5637c3ce69de42d9fed9123a67f4868c57a3015cb2057db0&amp;o=</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/ciudadano-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALO3aetBsACAdICJDU4NDY1N2ZlLWY5NmItNDdiMS05YmM0LTZmZDliZWRjZDY2MtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=a54919a79243018d&amp;srepoch=1705635543&amp;all_sr_blocks=299408101_374426849_0_42_0&amp;highlighted_blocks=299408101_374426849_0_42_0&amp;matching_block_id=299408101_374426849_0_42_0&amp;sr_pri_blocks=299408101_374426849_0_42_0__10000&amp;from=searchresults#hotelTmpl</t>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/ciudadano-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=27&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=299408101_374426849_0_42_0&amp;highlighted_blocks=299408101_374426849_0_42_0&amp;matching_block_id=299408101_374426849_0_42_0&amp;sr_pri_blocks=299408101_374426849_0_42_0__10000&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Hotel Ciudadano Suites se encuentra en Montevideo, a 2,8 km de Playa Ramírez, y ofrece servicio de conserjería, habitaciones libres de humo, terraza, wifi gratis en todo el alojamiento y restaurante. Este hotel de 4 estrellas ofrece servicio de habitaciones y recepción 24 horas. Hay bar.
+El hotel ofrece habitaciones con aire acondicionado, armario, hervidor, microondas, minibar, caja fuerte, TV de pantalla plana y baño privado con bidet. En Hotel Ciudadano Suites, cada habitación tiene ropa de cama y toallas.
+Cerca del alojamiento hay puntos de interés como Terminal Tres Cruces, Estadio Gran Parque Central y Estadio Centenario. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 15 km del alojamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Urbano Hotel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>US$57</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.133</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/330790625.webp?k=7013e8e8a882047b603c55e3d33f81b61cf4d3b25a032e0e4d81ca70f0f2c43a&amp;o=</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/urban-express.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=28&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=25766501_89153451_0_0_0&amp;highlighted_blocks=25766501_89153451_0_0_0&amp;matching_block_id=25766501_89153451_0_0_0&amp;sr_pri_blocks=25766501_89153451_0_0_0__5738&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>El Hotel Urban Express, que está situado en el centro de la ciudad de Montevideo, ofrece modernas habitaciones con TV de pantalla plana y conexión inalámbrica a internet gratuita, a sólo una manzana de la Plaza Independencia y del Mausoleo de Artigas.
+Todas las habitaciones del Urban Express están equipadas con aire acondicionado, TV por cable y baño privado. Algunas tienen vistas al Río de la Plata.
+Los huéspedes podrán disfrutar de recepción 24 horas en el Hotel Urban Express. El hotel también ofrece alquiler de coches y bicicletas.
+Todas las mañanas se sirve un desayuno local e internacional en la sala de desayunos del hotel.
+El Urban Express está a menos de 5 minutos a pie de los principales lugares de interés de Montevideo, como el Palacio Salvo, el Teatro Solís y el Museo Torres García.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hotel Montevideo - Leading Hotels of the World</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>US$215</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9,3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/405335192.webp?k=817a4cb6c2a8c2ec8f5dc7288dafdf7bd4ae39f40447f682e5a2f152857b45d9&amp;o=</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=29&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=902994003_361096049_2_2_0&amp;highlighted_blocks=902994003_361096049_2_2_0&amp;matching_block_id=902994003_361096049_2_2_0&amp;sr_pri_blocks=902994003_361096049_2_2_0__21500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hotel Montevideo - Leading Hotels of the World se encuentra en Montevideo, a 14 min a pie de Playa de los Pocitos, y ofrece alojamiento con centro de fitness, parking privado, terraza y restaurante. Este hotel de 5 estrellas ofrece servicio de habitaciones, recepción 24 horas y wifi gratis. Hay bar.
+El hotel ofrece habitaciones con aire acondicionado, escritorio, cafetera, minibar, caja fuerte, TV de pantalla plana y baño privado con bidet. Hotel Montevideo - Leading Hotels of the World dispone de algunas unidades con balcón, y todas tienenhervidor. En el alojamiento, todas las habitaciones tienen ropa de cama y toallas.
+En Hotel Montevideo - Leading Hotels of the World se puede disfrutar de un desayuno buffet.
+Playa Ramírez está a 1,8 km del alojamiento, y Terminal Tres Cruces está a 3,3 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 15 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BIT Design Hotel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>US$100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.638</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/39012233.webp?k=abc95d10b217e1ad7b705f4eec0ddccd24dd9f7f8efb934fa5fe79fcf85997cb&amp;o=</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/bit-design.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=30&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=117219608_89189032_0_2_0&amp;highlighted_blocks=117219608_89189032_0_2_0&amp;matching_block_id=117219608_89189032_0_2_0&amp;sr_pri_blocks=117219608_89189032_0_2_0__9980&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>El BIT Design Hotel se encuentra en el distrito Punta Carretas de Montevideo y ofrece vistas panorámicas a la ciudad, elegantes habitaciones sofisticadas y conexión WiFi gratuita.
+Las sofisticadas habitaciones del BIT Design Hotel disponen de TV de pantalla plana, aire acondicionado y minibar.
+La recepción 24 horas puede facilitar información sobre la zona y el establecimiento cuenta con consigna de equipaje y servicio de alquiler de coches.
+El establecimiento está a 50 metros del centro comercial Punta Carretas Shopping, a 3 km del complejo de edificios empresariales World Trade Center de Montevideo y a 16 km del aeropuerto internacional de Carrasco Gral. Cesáreo L. Berisso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hotel Costanero MGallery - ACCOR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>US$198</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/380465186.webp?k=42e9d784c0d5171001cd0d2f7fb5590c35bb71e491ef398b888c842451666533&amp;o=</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/costanero-montevideo-mgallery.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=31&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=778490002_338829010_2_2_0&amp;highlighted_blocks=778490002_338829010_2_2_0&amp;matching_block_id=778490002_338829010_2_2_0&amp;sr_pri_blocks=778490002_338829010_2_2_0__19800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>El Hotel Costanero MGallery se encuentra en Montevideo, frente a la playa de Pocitos, y ofrece alojamiento con restaurante, aparcamiento privado, piscina al aire libre y bar. Hay sauna y servicio de alquiler de coches. Hay recepción 24 horas, servicio de enlace con el aeropuerto, servicio de habitaciones y WiFi gratuita en todas las instalaciones.
+Las habitaciones disponen de aire acondicionado, escritorio, caja fuerte, TV de pantalla plana y baño privado con ducha. Las habitaciones incluyen armario.
+El Hotel Costanero MGallery sirve un desayuno buffet.
+Buceo se encuentra a 1,5 km del alojamiento, mientras que Malvin está a 2,6 km. El aeropuerto más cercano es el aeropuerto internacional de Carrasco, ubicado a 14 km del Hotel Costanero MGallery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Palladium Business Hotel</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>US$85</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2.901</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/43466678.webp?k=99d23864e148e252c7163a2c1865dafa692f4a677437358cb516b2115ab811e9&amp;o=</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/palladium-business.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=32&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=24679703_333979664_0_2_0&amp;highlighted_blocks=24679703_333979664_0_2_0&amp;matching_block_id=24679703_333979664_0_2_0&amp;sr_pri_blocks=24679703_333979664_0_2_0__8500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Este hotel de 4 estrellas está situado en Montevideo, cerca de la nueva Zona Franca. Ofrece una terraza en la azotea con vistas a la ciudad y conexión Wi-Fi gratuita. El aeropuerto internacional de Carrasco está a 15 minutos en coche.
+Las habitaciones del Palladium Business Hotel cuentan con muebles de estilo clásico, TV por cable, minibar y baño. Las suites esquineras tienen bañera de hidromasaje y un escritorio amplio.
+El establecimiento dispone de una piscina al aire libre y un gimnasio bien equipado.
+Hay servicios de lavandería, limpieza en seco y planchado disponibles por un suplemento</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Aloft Montevideo Hotel</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>US$179</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/448690648.webp?k=ea58e54a50ceeebb1ec81bf8cf264a389cb8782b955e11c940d07943627247c3&amp;o=</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/aloft-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=33&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=258236407_274565601_0_34_0&amp;highlighted_blocks=258236407_274565601_0_34_0&amp;matching_block_id=258236407_274565601_0_34_0&amp;sr_pri_blocks=258236407_274565601_0_34_0__17900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>El Aloft Montevideo Hotel, situado a 3,6 km de la plaza Cagancha, Montevideo, ofrece restaurante, bar y conexión WiFi gratuita.
+Todas las habitaciones son para no fumadores y disponen de TV de pantalla plana con canales por cable y baño privado con ducha. Algunos alojamientos tienen vistas al río o a la ciudad.
+Hay recepción 24 horas, piscina, centro de negocios y centro de fitness.
+La Plaza de la Independencia está a 4,2 km, el teatro Solís queda a 4,3 km y el El aeropuerto más cercano, el Internacional de Carrasco, se encuentra a 16 km del Aloft Montevideo Hotel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hotel London Palace</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>US$66</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.859</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/4770562.webp?k=2208e792f7566f8bac434394eb18d1aeb4b2d4e7e82c6729c338173e35f9937d&amp;o=</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/london-palace.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=34&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=31594102_333398296_0_1_0&amp;highlighted_blocks=31594102_333398296_0_1_0&amp;matching_block_id=31594102_333398296_0_1_0&amp;sr_pri_blocks=31594102_333398296_0_1_0__6570&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>El London Palace, situado a solo 2 calles de la popular plaza de Entrevero, en Montevideo,  ofrece alojamiento elegante con conexión Wi-Fi gratuita. El pintoresco casco antiguo de Montevideo se encuentra a 13 calles.
+El Hotel London Palace dispone de elegantes habitaciones con suelos de parqué, molduras de madera clara en las paredes y escritorio. Todos los apartamentos están equipados con aire acondicionado, TV vía satélite y minibar. Algunas habitaciones disponen de 2 baños e incluyen una bañera con elementos de mármol.
+Todos los días se sirve un desayuno bufé completo que consta de cruasanes, mermeladas regionales, zumos recién exprimidos y bollería. El hotel dispone de servicio de habitaciones.
+El London está a solo 6 calles del río y a 7 del famoso Teatro Solís. La recepción está abierta las 24 horas y ofrece un práctico servicio de cambio de divisa. El establecimiento dispone de aparcamiento privado gratuito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cottage Carrasco</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>US$155</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/417514514.webp?k=0a3d791e21b5385136f52c32b422d1ca746a06a152388004198b6edc9ed071e1&amp;o=</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/cottage.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=35&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=24848302_89152586_0_42_0&amp;highlighted_blocks=24848302_89152586_0_42_0&amp;matching_block_id=24848302_89152586_0_42_0&amp;sr_pri_blocks=24848302_89152586_0_42_0__15500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Este hotel de playa está situado en la zona residencial de Carrasco y ofrece habitaciones con TV de pantalla plana y vistas panorámicas al océano Atlántico Sur. Hay piscina al aire libre.
+Todas las habitaciones del Cottage Carrasco cuentan con WiFi gratuita, aire acondicionado, TV por cable y minibar. Algunas tienen bañera de hidromasaje.
+Además de piscina al aire libre, el Cottage Hotel dispone de gimnasio y sauna.
+El restaurante prepara platos locales e internacionales.
+El hotel se encuentra a solo 15 minutos en coche del centro de Montevideo. Se proporciona aparcamiento privado gratuito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hotel Uruguay</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>US$53</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/89946495.webp?k=c5b022d2a3c8abae06f3b196433e3502ce430ed29bd8cdc86dbe91ebe7eb44e3&amp;o=</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/uruguay.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=36&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=41256501_383556804_0_2_0&amp;highlighted_blocks=41256501_383556804_0_2_0&amp;matching_block_id=41256501_383556804_0_2_0&amp;sr_pri_blocks=41256501_383556804_0_2_0__5300&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Esta casa con encanto data del siglo XIX, se encuentra en Montevideo y ofrece habitaciones cómodas con WiFi gratuita. Hay habitaciones con baño privado y con baño compartido. El paseo marítimo de Montevideo está a 10 minutos a pie.
+El Hotel Uruguay ofrece habitaciones decoradas con buen gusto y equipadas con aire acondicionado y TV por cable. Algunas disponen de TV de pantalla plana. Hay servicio de lavandería disponible.
+Todos los días se sirve un desayuno continental con zumo de naranja, mermeladas de fresa y melocotón y jamón y queso de la región.
+El aeropuerto de Carrasco está a 18 km del hotel o a 45 minutos en coche. El Hotel Uruguay se halla a 250 metros de la plaza Fabini y a 300 metros de la avenida 18 de Julio. Además, hay un mostrador de información turística que cuenta con servicio de alquiler de coches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Regency Golf - Hotel Urbano</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>US$111</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.028</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/10300272.webp?k=9e5731d33a54fb2138041042226c89ef095d7085e3a741ba779896c11a5e8368&amp;o=</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/regency-golf.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=37&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=24655702_89152439_0_41_0&amp;highlighted_blocks=24655702_89152439_0_41_0&amp;matching_block_id=24655702_89152439_0_41_0&amp;sr_pri_blocks=24655702_89152439_0_41_0__11120&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>El Regency Golf - Hotel Urbano está situado frente al centro comercial Punta Carretas y ofrece habitaciones independientes con TV de plasma y WiFi gratuita. El paseo a lo largo del río se encuentra a 500 metros. Se proporciona restaurante, gimnasio y aparcamiento gratuito sujeto a disponibilidad.
+Las habitaciones del Regency Golf - Hotel Urbano tienen una decoración sobria de estilo minimalista e incluyen ventanas amplias con vistas a la ciudad, minibar, nevera y microondas.
+Se sirve un desayuno buffet diario. El restaurante ofrece platos internacionales y el bar sirve bebidas de calidad.
+Hay un campo de golf a 50 metros, así como tiendas y cines a pocos pasos. Se proporciona asistencia médica las 24 horas.
+El Regency Golf - Hotel Urbano se encuentra a 2,5 km de la playa de Pocitos y a 20 minutos en coche del aeropuerto de Carrasco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Vivaldi Hotel Loft Punta Carretas</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>US$86</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2.542</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/68372224.webp?k=ba228d81a0e708f990150a322d280ff25cf24695e82ab884ff6536a673b1a307&amp;o=</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/vivaldi.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=38&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=0_0_1_1_0&amp;highlighted_blocks=0_0_1_1_0&amp;matching_block_id=0_0_1_1_0&amp;sr_pri_blocks=0_0_1_1_0__8600&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>El Vivaldi Hotel Loft Punta Carretas se encuentra en Montevideo y ofrece habitaciones elegantes con comodidades modernas, WiFi gratuita y decoración contemporánea. Alberga una piscina al aire libre y un centro de fitness, y sirve un desayuno cada mañana.
+Las habitaciones del Vivaldi Hotel Loft Punta Carretas presentan una decoración en tonos crema y cuentan con vistas a la ciudad, TV de pantalla plana, aire acondicionado, caja fuerte, armario, zona de estar y baño completo con secador de pelo. También incluyen minibar, utensilios de cocina y microondas. Solo las suites exclusivas cuentan con balcón. Asimismo, el establecimiento ofrece habitaciones comunicadas.
+El hotel también alberga instalaciones para reuniones, salón compartido y mostrador de información turística. Hay servicio de limpieza y de conserjería, y se proporciona servicio de traslado por un suplemento.
+El Vivaldi Hotel Loft Punta Carretas se encuentra a 400 metros de un centro comercial, a 1 km del parque Rodo, a 2,5 km del World Trade Center de Montevideo, a 3 km de la estación de Tres Cruces y a 16 km del aeropuerto internacional Carrasco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hotel Klee</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>US$65</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.315</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/12020523.webp?k=7b832e32299983ccc9bded206f26d371e41c9ae1aeeeb015115b6dc9139d080b&amp;o=</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/klee.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=39&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=44451101_206285546_2_1_0&amp;highlighted_blocks=44451101_206285546_2_1_0&amp;matching_block_id=44451101_206285546_2_1_0&amp;sr_pri_blocks=44451101_206285546_2_1_0__6500&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>El Hotel Klee está situado a 100 metros del centro de la ciudad de Montevideo y de la estación de metro. Ofrece conexión Wi-Fi gratuita y desayuno bufé. La plaza principal se encuentra a 200 metros.
+Las habitaciones del Hotel Klee están equipadas con TV por cable, aire acondicionado y minibar. Hay servicio de habitaciones.
+La recepción, abierta las 24 horas, ofrece servicio de lavandería e información turística.
+Hay aparcamiento privado gratuito cerca del establecimiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Holiday Inn Montevideo, an IHG Hotel</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>US$85</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.412</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/274094058.webp?k=d0cacd225816303fa1aec84e7a953dbad64a52b2c1abda6070019a97859c8ec1&amp;o=</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/holiday-inn.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=40&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=30287709_95437447_2_34_0&amp;highlighted_blocks=30287709_95437447_2_34_0&amp;matching_block_id=30287709_95437447_2_34_0&amp;sr_pri_blocks=30287709_95437447_2_34_0__8460&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>El Holiday Inn cuenta con piscina cubierta y gimnasio, así como elegantes habitaciones con TV por cable y desayuno, a solo 500 metros del ayuntamiento de Montevideo. La terminal de autobuses de Tres Cruces está a 2 km.
+Las habitaciones del Holiday Inn Montevideo son amplias y luminosas y presentan una decoración elegante en tonos suaves. Todas tienen escritorio y minibar, mientras que algunas disponen de zona de estar amplia y bañera de hidromasaje privada.
+A diario se sirve un desayuno buffet con repostería, jamón y queso. El bar salón ofrece bebidas y aperitivos.
+Este establecimiento alberga una sauna y una terraza con tumbonas. Hay WiFi gratuita en las zonas comunes y conexión a Internet por cable en las habitaciones.
+Se pueden reservar excursiones en el mostrador de información turística. El Holiday Inn Montevideo se halla a 5 minutos en coche del puerto de Montevideo y a 30 km del aeropuerto internacional de Carrasco.
+De conformidad con las leyes fiscales uruguayas, durante la temporada alta (del 15 de noviembre al domingo de Pascua), los ciudadanos uruguayos deben pagar un suplemento del 10% en concepto de IVA. Dicho impuesto no está incluido en el precio total de la reserva.
+El pago se efectuará en moneda local (UYU) según el tipo de cambio vigente el día del pago.
+De conformidad con la normativa fiscal del país, los ciudadanos uruguayos están obligados a pagar un suplemento del 10%. Este importe no se incluye de forma automática en el importe total de la reserva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Avokanto hostel</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>US$12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/329903636.webp?k=faffc8bde858587d86ddc3801d398dd655dbdf654e330274d61fcd116bfd1075&amp;o=</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/avokanto-hostel.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=41&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=785157407_339726999_1_2_0&amp;highlighted_blocks=785157407_339726999_1_2_0&amp;matching_block_id=785157407_339726999_1_2_0&amp;sr_pri_blocks=785157407_339726999_1_2_0__1170&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Avokanto hostel se encuentra en Montevideo y ofrece alojamiento con jardín, salón de uso común y terraza frente a la playa, a 6 min a pie de Playa Ramírez. El hostal o pensión, que cuenta con zona de barbacoa, está cerca de varios lugares de interés destacados, a unos 12 min a pie de Teatro de Verano y a 1,9 km de Palacio Municipal. El alojamiento ofrece recepción 24 horas, traslado para ir o volver del aeropuerto, cocina compartida y wifi gratis en todo el alojamiento.
+El hostal o pensión dispone de algunas unidades con vistas al jardín, y todas cuentan con baño compartido.
+Playa de los Pocitos está a 2,5 km del alojamiento, y Terminal Tres Cruces está a 2,8 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 17 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Selina Montevideo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>US$57</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/420231495.webp?k=031ad149c5588f971dabf7ae0fc6da7c00bb25e15220a00bd884416b32570cc2&amp;o=</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/zag-coliving-pocitos.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=42&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=803814708_367399624_0_2_0&amp;highlighted_blocks=803814708_367399624_0_2_0&amp;matching_block_id=803814708_367399624_0_2_0&amp;sr_pri_blocks=803814708_367399624_0_2_0__5720&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Selina Montevideo se encuentra en Montevideo, a 2 min a pie de Playa de los Pocitos, y ofrece habitaciones con aire acondicionado y terraza. Este alojamiento ofrece restaurante, cocina compartida y salón de uso común, además de wifi gratis. Este alojamiento libre de humo está a 2,1 km de Playa Ramírez.
+Algunas de las habitaciones tienen zona de cocina con nevera y microondas.
+Se puede jugar al ping-pong en el hotel, y también hay alquiler de bicicletas.
+La recepción ofrece ayuda en todo momento, y el personal habla inglés y español.
+Terminal Tres Cruces está a 3,8 km del alojamiento, y Plaza Cagancha está a 5 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 16 km del alojamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mérit Montevideo Apart &amp; Suites</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>US$80</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/50848770.webp?k=53f194a82cfbe232aa091fc9d7aed07d08dd55a7b582310ef4838c8880d8936e&amp;o=</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/merit-montevideo-apart-amp-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=43&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=135883805_224657292_2_0_0&amp;highlighted_blocks=135883805_224657292_2_0_0&amp;matching_block_id=135883805_224657292_2_0_0&amp;sr_pri_blocks=135883805_224657292_2_0_0__8000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>El Mérit Montevideo Apart &amp; Suites se encuentra en el distrito Pocitos de Montevideo, a 1,2 km del centro comercial y a 3,6 km de la plaza Cagancha, y ofrece sauna y centro de fitness. Hay WiFi gratuita en todas las instalaciones.
+Los alojamientos del Mérit Montevideo Apart &amp; Suites son elegantes y cómodos y cuentan con aire acondicionado, terraza con vistas a la ciudad, zona de comedor y zona de cocina bien equipada. TV de pantalla plana por cable, caja fuerte, escritorio y sofá. El baño incluye ducha. Se proporcionan toallas, ropa de cama y artículos de aseo.
+El Mérit Montevideo Apart &amp; Suites cuenta con solárium.
+El Mérit Montevideo Apart &amp; Suites se encuentra a 400 metros del paseo marítimo y a 4,3 km de la plaza de la Independencia. El aeropuerto internacional de Carrasco es el más cercano y queda a 15 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Punta Trouville Hotel</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>US$78</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2.627</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/422310886.webp?k=25d96c64cd47615cb5de0b27c862a433a6b59f051815138fad9f400675053a68&amp;o=</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/punta-trouville-apart-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=44&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=24820903_335151373_0_2_0&amp;highlighted_blocks=24820903_335151373_0_2_0&amp;matching_block_id=24820903_335151373_0_2_0&amp;sr_pri_blocks=24820903_335151373_0_2_0__7800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>El Punta Trouville Hotel está ubicado en el barrio de Punta Carretas, a poca distancia a pie de la playa de los Pocitos, de la plaza Gomensoro y de varios restaurantes y tiendas. Se encuentra a poca distancia a pie del parque Rodó, el Museo de Bellas Artes, el parque Villa Biarritz y el centro comercial Punta Carretas Shopping. Este hotel cuenta con WiFi gratuita.
+Las habitaciones presentan una decoración sencilla de estilo tradicional e incluyen aire acondicionado, TV de pantalla plana por cable, zona de cocina, minibar, radio despertador, caja fuerte, baño con secador de pelo y artículos de aseo y balcón.
+El Punta Trouville dispone de solárium con vistas panorámicas al mar y a la ciudad.
+El Punta Trouville Hotel se encuentra a 20 minutos en coche del aeropuerto. Además, hay aparcamiento disponible por un suplemento y sujeto a disponibilidad. No se admiten reservas.
+Las reservas con tarifa flexible que hayan hecho el registro de entrada y reduzcan el número de noches, tendrán una penalización de una noche, que se sumará al importe del alojamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hotel Casablanca Montevideo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>US$43</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/183708754.webp?k=e507c11fafb33bf5cc07b7964dc86e1eade85c6714b7ca9fb31c329ba180d52e&amp;o=</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/casablanca-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=45&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=53630111_119842613_0_0_0&amp;highlighted_blocks=53630111_119842613_0_0_0&amp;matching_block_id=53630111_119842613_0_0_0&amp;sr_pri_blocks=53630111_119842613_0_0_0__4320&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>El Hotel Casablanca Montevideo está situado en Montevideo, a 100 metros del centro de la ciudad y de la avenida 18 de Julio, y ofrece WiFi gratis y servicio de recepción las 24 horas. Las playas de Ramírez y Pocitos se encuentran a 2 km.
+Las tranquilas habitaciones del Hotel Casablanca Montevideo incluyen baño privado, aire acondicionado y TV por cable.
+El Casablanca Montevideo ofrece servicios de información turística, de alquiler de coches y bicicletas y de venta de entradas para espectáculos. También organiza excursiones.
+El Hotel Casablanca Montevideo está a 2,5 km del puerto de Montevideo, a 3,7 km de la estación de autobuses de Tres Cruces y a 20 km del aeropuerto internacional de Carrasco. Hay aparcamiento privado disponible por un suplemento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Regency Way Montevideo Hotel</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>US$94</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2.325</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/33762172.webp?k=920caf74bac24b983e0b81e97bf1b2a0f439657f5ec2e511acf0781cbf62cfbe&amp;o=</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/regency-way-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=46&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=105747404_89187287_0_42_0&amp;highlighted_blocks=105747404_89187287_0_42_0&amp;matching_block_id=105747404_89187287_0_42_0&amp;sr_pri_blocks=105747404_89187287_0_42_0__9360&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>El Regency Way Montevideo Hotel alberga piscina exterior, solárium y centro de fitness en Montevideo. El hotel ofrece conexión WiFi gratuita y se encuentra a 5 calles del World Trade Center de Montevideo.
+Las habitaciones del Regency Way son muy cómodas y disponen de aire acondicionado, calefacción, TV por cable de pantalla plana y baño completo con secador de pelo y minibar. Algunas de las habitaciones ofrecen balcón y zona de cocina.
+El hotel dispone de instalaciones para reuniones, centro de negocios y servicio de recepción las 24 horas. Los huéspedes pueden utilizar una zona de barbacoa por un suplemento. El establecimiento también ofrece servicios de lavandería, de camarera de pisos y de enlace con el aeropuerto.
+El aparcamiento comporta un suplemento y el aeropuerto está a 20 minutos en coche.
+El hotel se encuentra a 500 metros del World Trade Center de Montevideo, a 2,6 km de la estación Tres Cruces y a 500 metros del centro comercial Montevideo Shopping. El aeropuerto internacional de Carrasco queda a 13 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>New Arapey Hotel</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>US$52</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7,7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2.201</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/55514512.webp?k=d37ad93d022c0e3a612dfd27fa6fafd486c036a36891555ff1524e9afb31b754&amp;o=</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/arapey-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=47&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=24550401_204642982_0_0_0&amp;highlighted_blocks=24550401_204642982_0_0_0&amp;matching_block_id=24550401_204642982_0_0_0&amp;sr_pri_blocks=24550401_204642982_0_0_0__5200&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>El New Arapey Hotel está ubicado en un edificio de estilo art déco de la década de 1920 y dispone de habitaciones sencillas con conexión WiFi gratuita. El establecimiento ha sido recientemente reformado y se encuentra a 3 calles de la avenida 18 de Julio y a 10 minutos en autobús de la terminal de autobuses de Tres Cruces.
+Todas las habitaciones del New Arapey Hotel son amplias y han sido totalmente renovadas. Además, cuentan con muebles de estilo antiguo, baño privado, aire acondicionado, minibar, TV de pantalla plana por cable y radio.
+El New Hotel Arapey dispone de recepción 24 horas y se encuentra a menos de 10 minutos a pie de la Ciudad Vieja.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Esplendor by Wyndham Montevideo Cervantes</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>US$99</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2.825</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/163833120.webp?k=3673710bd7467db4f029328e9af0b0a2805632ea162486f06aff8b9931143535&amp;o=</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/esplendor-cervantes-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=48&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=31926710_246090246_2_1_0&amp;highlighted_blocks=31926710_246090246_2_1_0&amp;matching_block_id=31926710_246090246_2_1_0&amp;sr_pri_blocks=31926710_246090246_2_1_0__9900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Este hotel ofrece piscina cubierta y terraza en la azotea con vistas a Montevideo y se encuentra a solo 20 minutos a pie de la playa de Pocitos. Se pueden reservar masajes.
+El Esplendor by Wyndham Montevideo Cervantes es un establecimiento de 4 estrellas con un vestíbulo amplio y WiFi gratuita en las zonas comunes. Dispone de instalaciones de spa.
+Las habitaciones incluyen aire acondicionado, TV por cable de pantalla plana, minibar y elementos decorativos modernos.
+El Esplendor by Wyndham Montevideo Cervantes sirve todos los días un desayuno buffet con zumos recién hechos y cruasanes.
+El hotel está a 300 metros de la plaza de la Independencia y del encantador barrio de la Ciudad Vieja y dispone de recepción 24 horas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Regency Park Hotel</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>US$111</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.374</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/5962491.webp?k=e82bea548763772b751e8b941b6688736b62f6b82c61ce782a5d0b0cea661f4b&amp;o=</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/regency-zonamerica.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=49&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=27497304_100375201_0_41_0&amp;highlighted_blocks=27497304_100375201_0_41_0&amp;matching_block_id=27497304_100375201_0_41_0&amp;sr_pri_blocks=27497304_100375201_0_41_0__11120&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>El Regency Park Hotel está en el exclusivo barrio de Jacksonville, en Montevideo. Ofrece una piscina al aire libre, un spa, un restaurante y habitaciones elegantes con instalaciones modernas.
+El alojamiento cuenta con conexión WiFi gratuita y aparcamiento. Las habitaciones, de estilo minimalista y con vistas panorámicas, tienen aire acondicionado, TV LCD con canales por cable y reproductor de CD y DVD. El servicio de habitaciones y el de lavandería están disponibles las 24 horas. Las suites incluyen zona de cocina.
+El restaurante Gaspar sirve cocina moderna.
+El Regency Park Hotel está a 10 minutos en coche del aeropuerto y a 30 minutos en coche del centro de la ciudad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hotel Alvear</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>US$68</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.873</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/424268673.webp?k=dc7d690a141ede08e93a046b7cb4ba7d0562975a2fc27ca5d49ae51f964053ff&amp;o=</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/alvear.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAK84qetBsACAdICJGM2YzJkMDhmLTc2MGItNDc5OS04M2E2LTMwNDYxMjZiMGYzZNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=50&amp;sr_order=popularity&amp;srpvid=1c4e1ade65ff01e7&amp;srepoch=1705636165&amp;all_sr_blocks=29782906_379058073_0_1_0&amp;highlighted_blocks=29782906_379058073_0_1_0&amp;matching_block_id=29782906_379058073_0_1_0&amp;sr_pri_blocks=29782906_379058073_0_1_0__6800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>El hotel, que ofrece habitaciones con aire acondicionado y wifi gratuita, ocupa una ubicación estratégica, a solo media calle de la avenida 18 de Julio y a 5 calles de la popular plaza del Entrevero.
+El Hotel Alvear se halla a solo 8 calles del centro histórico de Montevideo y a 10 calles de la Rambla Sur, un bulevar que discurre junto al mar. El personal del mostrador de información turística ofrece recomendaciones.
+Las habitaciones están equipadas con TV por cable y minibar. Todas las habitaciones tienen baño privado moderno con accesorios de mármol.
+El bar sirve un desayuno buffet completo con cruasanes y café a diario. Los huéspedes también pueden disfrutarlo en la habitación.
+El Alvear cuenta con recepción 24 horas. El aeropuerto internacional de Carrasco queda a 16 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Soro Montevideo, Curio Collection By Hilton</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>US$163</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9,2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/484118424.webp?k=1aa3a9b3fd83a2e1158e63f8ea6b6b9f37d13fa7160cf0fad39ab49565453a4e&amp;o=</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/soro-montevideo-curio-collection-by-hilton.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=51&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636165&amp;all_sr_blocks=534117503_274563208_2_2_0&amp;highlighted_blocks=534117503_274563208_2_2_0&amp;matching_block_id=534117503_274563208_2_2_0&amp;sr_pri_blocks=534117503_274563208_2_2_0__16300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Soro Montevideo, Curio Collection By Hilton está en Montevideo, a 2 min a pie de Playa de los Pocitos, y dispone de alojamiento con bicicletas gratis, parking privado, centro de fitness y terraza. El alojamiento ofrece restaurante y también tiene bar y bañera de hidromasaje. El alojamiento ofrece recepción 24 horas, traslado para ir o volver del aeropuerto, servicio de habitaciones y wifi gratis en todo el alojamiento.
+Las unidades en el hotel están equipadas con aire acondicionado, zona de estar, TV de pantalla plana con canales por cable, caja fuerte y baño privado con bidet, artículos de aseo gratuitos y secador de pelo. En Soro Montevideo, Curio Collection By Hilton, las habitaciones están equipadas con ropa de cama y toallas.
+El alojamiento también ofrece servicio de alquiler de coches y un centro de negocios.
+Playa Ramírez está a 2,1 km del alojamiento, y Terminal Tres Cruces está a 3,8 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 16 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Crystal Tower</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>US$78</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.055</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/259626044.webp?k=c4fb105f0c065c7cc1fac262471591f1ac7ad4c79322dad01a885610564b1bcc&amp;o=</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/crystal-tower.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=52&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636165&amp;all_sr_blocks=132850901_195914870_0_2_0&amp;highlighted_blocks=132850901_195914870_0_2_0&amp;matching_block_id=132850901_195914870_0_2_0&amp;sr_pri_blocks=132850901_195914870_0_2_0__7829&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>El Crystal Tower se encuentra en Montevideo y cuenta con restaurante, centro de fitness y habitaciones cómodas con WiFi gratuita. La avenida 18 de Julio está a 20 metros.
+Las habitaciones del Crystal Tower están equipadas con minibar, zona de estar, caja fuerte, TV de pantalla plana, aire acondicionado y baño privado con secador de pelo y artículos de aseo gratuitos. Algunas habitaciones gozan de vistas a la ciudad.
+El establecimiento alberga un solárium, un bar y un salón compartido. La recepción está disponible las 24 horas y ofrece información sobre la zona.
+El Crystal Tower proporciona aparcamiento por un suplemento. Se encuentra a 300 metros de la plaza Cagancha y a 1 km del paseo marítimo y la plaza de la Independencia. El aeropuerto internacional de Carrasco está a 17 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>27 Suites Hotel</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>US$73</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/179725308.webp?k=e448c383afc632c7e2a75a1822dea6d49cb63141ddbd4673d8359d70e6af0c90&amp;o=</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/27-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=53&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636165&amp;all_sr_blocks=72569803_341957137_2_2_0&amp;highlighted_blocks=72569803_341957137_2_2_0&amp;matching_block_id=72569803_341957137_2_2_0&amp;sr_pri_blocks=72569803_341957137_2_2_0__7340&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>El 27 Suites Hotel está situado en Montevideo, a solo 50 metros de la playa de Pocitos, y ofrece suites cómodas y modernas con cocina. Además, tiene WiFi gratuita y se encuentra a 1 km del centro comercial Punta Carretas.
+Los apartamentos del 27 Suites Hotel son amplios y luminosos, presentan una decoración acogedora y tienen vistas a la ciudad o a la costa, baño privado, aire acondicionado, zona de cocina bien equipada, TV de pantalla plana por cable y caja fuerte.
+También hay servicio de lavandería.
+El 27 Suites Hotel se encuentra a 3,6 km de la estación terminal Tres Cruces, a 4 km de la plaza Cagancha y a 6 km del puerto de Montevideo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BALMORAL PLAZA HOTEL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>US$76</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/516400234.webp?k=72bcf494e65371eb1deaba3858a9ac6bd41d70f6631e86771b9429de9fd48f31&amp;o=</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/balmoral-plaza-monteviseo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=54&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636165&amp;all_sr_blocks=1129394101_385588155_1_1_0&amp;highlighted_blocks=1129394101_385588155_1_1_0&amp;matching_block_id=1129394101_385588155_1_1_0&amp;sr_pri_blocks=1129394101_385588155_1_1_0__7600&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>BALMORAL PLAZA HOTEL está muy bien situado en el barrio de Centro de Montevideo, Montevideo, a pocos pasos de Plaza Cagancha, a menos de 1 km de Plaza de la Independencia y a 13 min a pie de Teatro Solís. Este hotel de 4 estrellas tiene habitaciones con aire acondicionado, baño privado y wifi gratis. El alojamiento está a 2,5 km de Playa Ramírez y a 300 metros del centro de la ciudad.
+En el hotel, las habitaciones tienen armario. En BALMORAL PLAZA HOTEL, cada habitación dispone de ropa de cama y toallas.
+En el alojamiento se sirve cada mañana un desayuno sin gluten.
+El personal de la recepción habla tanto inglés como español y puede ayudar a la clientela a planificar su estancia.
+Cerca del alojamiento hay puntos de interés como Palacio Municipal, El Cabildo y Palacio Taranco. El aeropuerto (Aeropuerto internacional de Carrasco) está a 18 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Don Boutique Hotel Montevideo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>US$115</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/205541976.webp?k=9f9e920a322d4142ab255bcb10c235a16ba2abdd064d65128182143b0f2289b3&amp;o=</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/don-boutique.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=55&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=29220403_89158056_2_1_0&amp;highlighted_blocks=29220403_89158056_2_1_0&amp;matching_block_id=29220403_89158056_2_1_0&amp;sr_pri_blocks=29220403_89158056_2_1_0__11500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>El Don es un exclusivo hotel boutique de arquitectura Art Déco e interiores modernos. La azotea cuenta con vistas panorámicas y alberga una piscina al aire libre, un solárium y un bar elegante con vistas al centro de Montevideo y al río de la Plata.
+Las habitaciones del Don Boutique Hotel son cómodas, presentan una decoración elegante en tonos blanco y negro e incluyen suelo de madera de color chocolate, aire acondicionado, TV LCD y por cable y conexión WiFi gratuita. Algunas también tienen bañera de hidromasaje privada.
+El restaurante sirve platos uruguayos y gourmet regionales, así como una carta de vinos sudamericanos muy completa. Todos los días se sirve un desayuno a la carta con varias opciones, como zumo de naranja recién exprimido, cruasanes, fruta fresca, tortillas, salmón delicioso y otros productos excelentes.
+El Don Hotel Boutique está frente al Mercado del Puerto y a solo una calle del puerto de Montevideo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Che Lagarto Hostel Montevideo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>US$15</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/155174250.webp?k=e09b6ca4f3e3a83604614202c5219d258102d59e396c59e1a4f8e73a90fd8f35&amp;o=</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/che-lagarto-hostel-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=56&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=56958603_360757902_0_0_0&amp;highlighted_blocks=56958603_360757902_0_0_0&amp;matching_block_id=56958603_360757902_0_0_0&amp;sr_pri_blocks=56958603_360757902_0_0_0__1500&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>El Che Lagarto Hostel Montevideo, situado en Montevideo, ofrece WiFi gratuita y alberga una cocina compartida totalmente equipada y una zona de estar de uso común con ordenadores. La estación de autobuses Tres Cruces se encuentra a 600 metros.
+Las habitaciones del Che Lagarto Hostel Montevideo son tranquilas y disponen de baño privado o compartido.
+El Che Lagarto Hostel Montevideo ofrece servicio de información turística.
+El Che Lagarto Hostel Montevideo está a 100 metros de la avenida 18 de Julio y a 200 metros del parque Liber Seregni.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Armon Suites Hotel</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>US$110</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.771</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/355023928.webp?k=a914842f3ee05f73ae416ff4ecbcd1a3dfb489f65f62a74d594d914cec316679&amp;o=</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/armon-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=57&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=24504901_285025234_0_2_0&amp;highlighted_blocks=24504901_285025234_0_2_0&amp;matching_block_id=24504901_285025234_0_2_0&amp;sr_pri_blocks=24504901_285025234_0_2_0__11000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Armon Suites Hotel es un establecimiento de 4 estrellas que ofrece suites independientes con wifi gratis y bañera de hidromasaje. Incluye piscina cubierta climatizada. Se halla a solo 500 metros de la playa y de la rambla. El centro comercial Punta Carretas queda a 600 metros.
+Todas las suites del Armon Suites cuentan con aire acondicionado, TV de pantalla plana por cable, suelo de parquet, minibar con aperitivos Algunas habitaciones tienen balcón o terraza privados. Todas incluyen bañera de hidromasaje.
+Además de una piscina cubierta climatizada, el spa también incluye una sauna seca y bicicletas estáticas. Los huéspedes pueden pesar su equipaje en las básculas del establecimiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Le Bibló</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>US$135</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/474105397.webp?k=efda0c6435e99047ae85f0f2895b314460828bb7e83ccee1f564190e84679f37&amp;o=</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/le-biblo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=58&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=74241709_366511264_1_9_0&amp;highlighted_blocks=74241709_366511264_1_9_0&amp;matching_block_id=74241709_366511264_1_9_0&amp;sr_pri_blocks=74241709_366511264_1_9_0__13500&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Le Bibló ofrece alojamiento en el distrito de Carrasco, en Montevideo.
+Le Bibló está a 13 km de Montevideo y a 29 km de Atlántida. El aeropuerto internacional de Carrasco se halla a 6 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hotel Europa</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>US$59</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.530</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/197908223.webp?k=26c4af74f735bc51d7c5426802138681af9966bbcf11d7adcc43707900372aa0&amp;o=</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/europa.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=59&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=24752106_0_1_1_0&amp;highlighted_blocks=24752106_0_1_1_0&amp;matching_block_id=24752106_0_1_1_0&amp;sr_pri_blocks=24752106_0_1_1_0__5915&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>El Hotel Europa está situado a menos de 3 km del casco antiguo y ofrece conexión Wi-Fi gratuita. Dispone de recepción 24 horas y mostrador de información turística.
+Todas las habitaciones del Europa Hotel son amplias y tienen baño privado y TV por cable. Para mayor comodidad, el aire acondicionado y la calefacción se regulan individualmente. Hay servicio de habitaciones las 24 horas.
+El restaurante del Europa sirve un desayuno bufé completo. El bar del hotel ofrece bebidas y aperitivos ligeros, y en ocasiones cuenta con música de piano en directo.
+El Europa se encuentra a 5 minutos del centro bancario de Montevideo y a 20 minutos a pie del distrito comercial. El aeropuerto internacional de Carrasco queda a 20 minutos en coche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Own Montevideo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>US$115</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/158270005.webp?k=c855559e9acea15576e46f9eeb62af4448e6234828e09ab2b2d60aa659f09bf4&amp;o=</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/own-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=60&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=161856402_89083247_2_1_0&amp;highlighted_blocks=161856402_89083247_2_1_0&amp;matching_block_id=161856402_89083247_2_1_0&amp;sr_pri_blocks=161856402_89083247_2_1_0__11475&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>El Own Montevideo Hotel está situado en Montevideo y dispone de piscina al aire libre, restaurante y habitaciones cómodas con aire acondicionado. También cuenta con solárium y WiFi gratuita. El paseo marítimo queda a 300 metros.
+Las habitaciones del Own Montevideo Hotel son cómodas y están equipadas con TV de pantalla plana por cable, soporte para iPod y baño privado con albornoces y artículos de aseo gratuitos. Algunos alojamientos tienen zona de estar y otros incluyen terraza o balcón.
+La recepción abre las 24 horas. El Own Montevideo Hotel ofrece servicio de alquiler de bicicletas y en la zona se puede jugar al golf. También hay servicio de alquiler de coches y aparcamiento disponible por un suplemento.
+El Own Montevideo Hotel se encuentra a 3,6 km de la plaza de Cagancha, a 4 km de la plaza de la Independencia y a 16 km del aeropuerto internacional de Carrasco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mercure Montevideo Punta Carretas</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>US$111</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/315972976.webp?k=e0cd1ba6a3b1bc7cc3992b826c2190be5f282aaeb3fcd96976fff5ec17e1ac70&amp;o=</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/mercure-montevideo-punta-carretas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=61&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=91201101_93772209_1_2_0&amp;highlighted_blocks=91201101_93772209_1_2_0&amp;matching_block_id=91201101_93772209_1_2_0&amp;sr_pri_blocks=91201101_93772209_1_2_0__11115&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>El Mercure Montevideo Punta Carretas presenta una decoración elegante y vistas a la bahía de Montevideo. Dispone de centro de fitness y zona de estar elegante. La conexión Wi-Fi es gratuita y el restaurante sirve deliciosos platos gourmet para cenar.
+Las habitaciones del Mercure Montevideo cuentan con TV de pantalla plana y aire acondicionado. También incluyen baño privado con secador de pelo, toallas y artículos de aseo gratuitos. Algunas también tienen vistas al río. También incluyen minibar y canales por cable.
+El Mercure Montevideo Punta Carretas ofrece recepción 24 horas, jardín y terraza. Además, hay servicio de venta de entradas, mostrador de información turística y consigna de equipaje.
+El hotel está a 1,4 km del parque Rodó y a 10 minutos en coche del distrito financiero de la ciudad. El aeropuerto internacional de Carrasco se encuentra a 16 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hotel California</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>US$72</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2.214</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/18712066.webp?k=d5cf1f4654c938273b21e4a56b8772438fe99d5791cbb2814accd7cbb8bf9867&amp;o=</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/california.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=62&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=31336005_89160853_0_1_0&amp;highlighted_blocks=31336005_89160853_0_1_0&amp;matching_block_id=31336005_89160853_0_1_0&amp;sr_pri_blocks=31336005_89160853_0_1_0__7200&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>El Hotel California está situado en pleno centro de Montevideo y ofrece habitaciones con conexión Wi-Fi gratuita. Se encuentra a 50 metros de la Avenida 18 de julio y de la plaza Cagancha. Hay aparcamiento gratuito sujeto a disponibilidad.
+Las habitaciones del California Hotel cuentan con baño privado, aire acondicionado, minibar y ventanas de doble acristalamiento. Algunas habitaciones tienen balcón privado.
+El personal de la recepción 24 horas puede organizar un servicio de traslado al aeropuerto internacional de Carrasco. Además, el establecimiento dispone de caja fuerte y servicio de lavandería.
+El Hotel California sirve un desayuno buffet diario. También hay varios restaurantes tradicionales en el centro y en el barrio de Ciudad Vieja, a 2 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Alma Histórica Boutique Hotel</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>US$184</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>9,2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/40040326.webp?k=48612a169462a553f050ba528314584440f267ffca3270ad9efcf56ca1ff6243&amp;o=</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/alma-historica-boutique.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=63&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=127030601_89190295_2_1_0&amp;highlighted_blocks=127030601_89190295_2_1_0&amp;matching_block_id=127030601_89190295_2_1_0&amp;sr_pri_blocks=127030601_89190295_2_1_0__18360&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>El Alma Histórica Boutique Hotel está situado en la histórica ciudad de Montevideo y ofrece habitaciones elegantes con conexión WiFi gratuita. Por las mañanas se sirve un desayuno completo. El paseo marítimo se encuentra a solo 500 metros.
+Las habitaciones del Alma Histórica Boutique Hotel presentan una decoración elegante y tienen suelo de madera, aire acondicionado, TV de pantalla plana por cable, minibar y baño completo con secador de pelo y artículos de aseo gratuitos. Todos los alojamientos gozan de vistas a la ciudad, mientras que algunos tienen balcón.
+El Alma Histórica Boutique Hotel cuenta con instalaciones para reuniones, salón compartido, recepción 24 horas, servicio de alquiler de coches y servicio de enlace con el aeropuerto.
+El hotel se halla a 200 metros del mercado del puerto de Montevideo, a 600 metros del puerto de Montevideo, a 700 metros del teatro Solís y a 19 km del aeropuerto internacional de Carrasco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>AXSUR Design Hotel</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>US$87</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/284910379.webp?k=01856bc17fd1ec5306984ff6816f172fc9223bd6b1614eb20497dcbc492158eb&amp;o=</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/axsur-design.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=64&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=40671604_89171724_0_0_0&amp;highlighted_blocks=40671604_89171724_0_0_0&amp;matching_block_id=40671604_89171724_0_0_0&amp;sr_pri_blocks=40671604_89171724_0_0_0__8740&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Este hotel de diseño está situado a 100 metros del centro histórico, financiero y comercial de Montevideo y ofrece alojamiento independiente con vistas al mar y conexión Wi-Fi gratuita. El desayuno diario incluye platos artesanales.
+Las habitaciones del AXSUR Design Hotel cuentan con baño privado, minibar y TV LCD por cable. Algunas ofrecen vistas a la ciudad. Hay servicio de habitaciones.
+El puerto de la ciudad y el teatro Solís están a 500 metros. El aeropuerto de Carrasco está a 30 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hotel Ideal</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>US$50</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>7,7</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/15242521.webp?k=a12c00a3cdca68146c79f756aedbeb618161b81bedbf6463acf3a97baf0a95fc&amp;o=</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/ideal.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=65&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=38373601_287395252_0_0_0&amp;highlighted_blocks=38373601_287395252_0_0_0&amp;matching_block_id=38373601_287395252_0_0_0&amp;sr_pri_blocks=38373601_287395252_0_0_0__5000&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>El Hotel Ideal se encuentra en Montevideo, a solo 200 metros de la plaza de la Independencia, y ofrece habitaciones con baño privado, conexión Wi-Fi gratuita, aire acondicionado y TV por cable. El centro histórico está a 200 metros.
+Las habitaciones del Ideal Hotel cuentan con suelos de parqué y mesitas de noche de madera. Todas disponen de calefacción y ventilador. Hay servicio de lavandería.
+El bar ofrece bebidas y aperitivos que se pueden disfrutar en el balcón.
+Se puede organizar un servicio de enlace con el aeropuerto y se pueden reservar excursiones en el mostrador de información turística. El Hotel Ideal está a 1 km del puerto y a 400 metros de la plaza Libertad. En las inmediaciones hay aparcamiento disponible por un suplemento. No es necesario reservar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Cala di Volpe Boutique Hotel</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>US$250</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.538</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/15244737.webp?k=6c1b843638c1d67ec091a62ddb22b1ad28dab2b68af45a059e61de9fabe4e524&amp;o=</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/cala-di-volpe-boutique.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=66&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=24551001_333981053_0_2_0&amp;highlighted_blocks=24551001_333981053_0_2_0&amp;matching_block_id=24551001_333981053_0_2_0&amp;sr_pri_blocks=24551001_333981053_0_2_0__25000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Este hotel de lujo se encuentra en una zona de playa de Montevideo y ofrece habitaciones con vistas al mar, conexión Wi-Fi gratuita y un gimnasio con vistas panorámicas, sauna, una piscina de hidromasaje y sesiones de masaje bajo reserva.
+El Cala di Volpe Boutique Hotel alberga un vestíbulo amplio con elementos de mármol, una lámpara de araña elegante y muebles con estilo.
+Las habitaciones tienen aire acondicionado, suelo totalmente de moqueta, papel de pared con dibujos exquisitos, sillas tapizadas, muebles de madera oscura, TV de pantalla plana, sofá, minibar y baño con bañera.
+Todos los días se sirve un desayuno bufé completo con cruasanes y repostería. El Azzurro Restaurant cuenta con vistas al mar y ofrece cenas a la carta.
+El hotel Cala di Volpe está a solo 12 calles del lago del parque Rodó y a 3 calles del club de golf. Ofrece bicicletas de uso gratuito y un servicio de alquiler de coches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nuevo Hotel Aramaya</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>US$67</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/490334930.webp?k=6dcccd688a58528a7813efe53a64aef9a9fd0237f7f81451d0525a7ca3c4500f&amp;o=</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/nuevo-aramaya.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=67&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=1069939401_379506177_2_1_0&amp;highlighted_blocks=1069939401_379506177_2_1_0&amp;matching_block_id=1069939401_379506177_2_1_0&amp;sr_pri_blocks=1069939401_379506177_2_1_0__6683&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Nuevo Hotel Aramaya es un alojamiento muy bien ubicado en el centro de Montevideo que ofrece habitaciones con aire acondicionado y wifi gratis, parking privado y servicio de habitaciones. Este hotel de 3 estrellas ofrece salón de uso común y recepción 24 horas. El alojamiento dispone de servicio de conserjería, servicio de limpieza en seco y servicio de organización de tours.
+Todas las habitaciones de este alojamiento están equipadas con TV de pantalla plana. En el hotel, las habitaciones tienen baño privado y ducha, y algunas también ofrecen balcón.
+En Nuevo Hotel Aramaya se puede disfrutar de un desayuno buffet o continental.
+Cerca del alojamiento hay puntos de interés como Plaza Cagancha, Plaza de la Independencia y Teatro Solís. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 18 km del alojamiento, que ofrece servicio de traslado de pago para ir o volver del aeropuerto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sur Hotel</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>US$56</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/8024327.webp?k=ab5c7594cbb54bf5bc9f880e125d565cf19a3e8082ed50524f6d76ba1c9ab348&amp;o=</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/s-u-r.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=68&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=30548803_97541800_0_0_0&amp;highlighted_blocks=30548803_97541800_0_0_0&amp;matching_block_id=30548803_97541800_0_0_0&amp;sr_pri_blocks=30548803_97541800_0_0_0__5600&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>El SUR Hotel, situado a solo 400 metros de la plaza Cagancha, ofrece habitaciones con WiFi gratuita y TV de plasma en una mansión encantadora de principios del siglo XX sin ascensor. El paseo del río está a 300 metros.
+Las habitaciones del SUR Hotel presentan una decoración moderna con suelo de parquet y paredes de colores vivos. Algunas de ellas incluyen bañera de hidromasaje y balcón. Hay habitaciones séxtuples, así como servicio de lavandería.
+En la recepción, abierta las 24 horas, los huéspedes podrán reservar excursiones y el servicio de enlace con el aeropuerto Carrasco, que se halla a 30 minutos. Este servicio conlleva un suplemento. El Sur Hotel se encuentra a 400 metros de la avenida principal, la avenida 18 de Julio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MedioMundo Hostel</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>US$21</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/498735879.webp?k=51f87403b50b5dce761f77f566f4dc6d22ccd52071fb8ee774945c227cbbb030&amp;o=</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/mediomundo-hostel.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=69&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=181032206_338281759_0_2_0&amp;highlighted_blocks=181032206_338281759_0_2_0&amp;matching_block_id=181032206_338281759_0_2_0&amp;sr_pri_blocks=181032206_338281759_0_2_0__2100&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>El mediomundo Hostel, situado en Montevideo, ofrece habitaciones cómodas con conexión WiFi gratuita. El establecimiento se encuentra a 50 metros de la plaza Rodo y a 300 metros de la costa.
+El establecimiento alberga un salón compartido con chimenea, TV por cable con canales vía satélite y ordenador. También hay una cocina compartida a disposición de los huéspedes. También hay un patio y una zona de barbacoa.
+Hay TV de pantalla plana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oxford Hotel</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>US$72</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.227</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/160788905.webp?k=981698d59f8f636a4602a45370d67052c7d4fbe4766b989a1d1f8e1d416c83bd&amp;o=</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/oxford.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=70&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=30382509_0_1_1_0&amp;highlighted_blocks=30382509_0_1_1_0&amp;matching_block_id=30382509_0_1_1_0&amp;sr_pri_blocks=30382509_0_1_1_0__7158&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>El Oxford Hotel está situado en el centro de Montevideo, a 1 calle de la animada avenida 18 de Julio, y cuenta con un vestíbulo amplio con muebles elegantes y suelo de mármol. Además, facilita WiFi gratuita.
+Las habitaciones del Oxford disponen de instalaciones prácticas, como minibar, aire acondicionado y TV de pantalla plana por cable. Algunas tienen balcón. También se ofrece servicio de habitaciones.
+Por las mañanas se sirve un desayuno buffet completo con zumos recién exprimidos, bollería local y cereales en el restaurante, que cuenta con ventanas que dan a un bonito jardín interior.
+Desde el Oxford se puede acceder fácilmente a las zonas de restauración, museos y lugares de interés. Además, se ofrece información sobre los servicios de alquiler de coches.
+El aeropuerto internacional de Carrasco está a 14 km del hotel. En las inmediaciones hay aparcamiento público gratuito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Opta Coliving Punta Carretas</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>US$99</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/304278728.webp?k=f966c6f5c6705288faa0f64315d259347c3cd388f1317ef4f2aade90b04629c2&amp;o=</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/opta-coliving-punta-carretas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=71&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=742751802_329416472_2_0_0&amp;highlighted_blocks=742751802_329416472_2_0_0&amp;matching_block_id=742751802_329416472_2_0_0&amp;sr_pri_blocks=742751802_329416472_2_0_0__9900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Opta Coliving Punta Carretas está en Montevideo, a 19 min a pie de Playa de los Pocitos y a 2,1 km de Playa Ramírez, y ofrece alojamiento con wifi gratis, jardín con terraza, vistas a la ciudad y acceso a la sala de fitness y a la sauna.
+Hay un baño privado totalmente equipado con bidet y secador de pelo.
+El apartamento ofrece bañera de hidromasaje. La clientela puede jugar al ping-pong o aprovechar el centro de negocios.
+También hay un salón de uso común ideal para relajarse.
+Terminal Tres Cruces está a 4,7 km del alojamiento, y Plaza Cagancha está a 5,4 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 17 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Patio Urbano Suites &amp; beds</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>US$37</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/493871544.webp?k=05b14100922840417a5b7046b9d5f29a11f1e36aaaf0b19eb3b9573733e70605&amp;o=</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/patio-urbano-suites-amp-beds-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=72&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=1080277804_380609087_1_0_0&amp;highlighted_blocks=1080277804_380609087_1_0_0&amp;matching_block_id=1080277804_380609087_1_0_0&amp;sr_pri_blocks=1080277804_380609087_1_0_0__3677&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Patio Urbano Suites &amp; beds se encuentra en Montevideo, a 12 min a pie de Playa de los Pocitos y a 2,3 km de Playa Ramírez. Ofrece alojamiento con jardín, terraza y wifi gratis en todo el alojamiento. El alojamiento está a 2,9 km de Terminal Tres Cruces, a 4,4 km de Plaza Cagancha y a 6 km de Teatro Solís. Plaza de la Independencia está a 6 km del hostal o pensión y Mercado del Puerto de Montevideo, a 7,7 km.
+Puerto de Montevideo está a 8,1 km del alojamiento, y Estadio Centenario está a 16 min a pie. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 14 km del alojamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FAUNA Montevideo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>US$115</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9,7</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Excepcional</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/181204503.webp?k=190680b2af25cc2508f4083e7047945f219770081e23a902ef6830dc889c5b28&amp;o=</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/fauna-montevideo-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=73&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=461707504_360459419_2_0_0&amp;highlighted_blocks=461707504_360459419_2_0_0&amp;matching_block_id=461707504_360459419_2_0_0&amp;sr_pri_blocks=461707504_360459419_2_0_0__11500&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>El FAUNA Montevideo se encuentra en Montevideo, a menos de 1 km de la plaza de la Independencia, y ofrece un salón compartido. Entre los lugares de interés cercanos se encuentran el mercado del puerto de Montevideo, el teatro Solís y el puerto de Montevideo. El establecimiento se encuentra en la Ciudad Vieja.
+Las habitaciones de la posada están equipadas con TV de pantalla plana. Las habitaciones están equipadas con baño privado con bidet y algunas tienen balcón. Las habitaciones del FAUNA Montevideo disponen de aire acondicionado y escritorio.
+El Fauna Montevideo se encuentra en el casco antiguo de Montevideo, a menos de 1 km del Palacio Taranco. El aeropuerto internacional de Carrasco está a 22 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cane B&amp;B</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>US$60</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Excepcional</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/325726616.webp?k=36227b1dc11f24f7cbf46f3c3999ffff577148573e7fe05d6fae01b2260d58cd&amp;o=</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/cane-b-b.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=74&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=253393803_339596635_2_1_0&amp;highlighted_blocks=253393803_339596635_2_1_0&amp;matching_block_id=253393803_339596635_2_1_0&amp;sr_pri_blocks=253393803_339596635_2_1_0__6000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Cane B&amp;B está a 5,1 km de Terminal Tres Cruces y ofrece alojamiento conjardín, salón de uso común y recepción 24 horas. El bed and breakfast ofrece wifi y parking privado, ambos gratis.
+Las unidades están equipadas con patio y ofrecen aire acondicionado, TV de pantalla plana y baño privado con bidet y artículos de aseo gratuitos. También hay nevera y microondas, además de hervidor.
+Plaza Cagancha está a 5,6 km del alojamiento, y Plaza de la Independencia está a 6,2 km. El aeropuerto más cercano (Aeropuerto internacional de Carrasco) está a 19 km del alojamiento, que ofrece servicio de traslado de pago para ir o volver del aeropuerto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Quijano Hotel - Aparts &amp; Suites</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>US$72</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fabuloso</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.058</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/244688739.webp?k=eb42b1ff47aebc3883ede88c52306f94a594ea04318141d4cae42c01c89331e2&amp;o=</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/quijano-aparts-amp-suites.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALE4qetBsACAdICJDgxYjZlN2M3LTMwZmQtNDI4ZS04ZDMzLWNmNDMxNzJlMGE1YdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=75&amp;sr_order=popularity&amp;srpvid=1dea1ae22d3800bc&amp;srepoch=1705636173&amp;all_sr_blocks=622650501_242589864_0_2_0&amp;highlighted_blocks=622650501_242589864_0_2_0&amp;matching_block_id=622650501_242589864_0_2_0&amp;sr_pri_blocks=622650501_242589864_0_2_0__7220&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>El Quijano Hotel - Aparts &amp; Suites se encuentra en Montevideo, a 1,8 km de Ramírez, y ofrece bar, salón compartido y vistas a la ciudad. Este hotel de 4 estrellas ofrece servicio de habitaciones y servicio de conserjería. El alojamiento cuenta con cocina y servicio de cambio de divisa.
+Los alojamientos cuentan con aire acondicionado, TV de pantalla plana con canales por cable, hervidor de agua, bidet, secador de pelo y armario. Todas las habitaciones tienen baño privado con ducha y artículos de aseo gratuitos.
+Entre los lugares de interés cercanos al alojamiento se incluyen la plaza Cagancha, la plaza de la Independencia y el teatro Solís. El Quijano Hotel - Aparts &amp; Suites se encuentra a 23 km del aeropuerto internacional de Carrasco, el más cercano. El establecimiento ofrece un servicio de enlace con el aeropuerto por un suplemento.</t>
         </is>
       </c>
     </row>
